--- a/Documents/Workbook for Optimisation.xlsx
+++ b/Documents/Workbook for Optimisation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danak\OneDrive\Desktop\FIRE Wealth Advisers\Portfolio construction tool\Dovi Diamond\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Think Numbers\FIRE Wealth\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4001D5-24F4-40D7-9986-13F20536FC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2261C4-E200-4195-A72B-CA179CC66788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{D80F92C7-E589-439B-BC4D-83245EFE02B1}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{D80F92C7-E589-439B-BC4D-83245EFE02B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -295,12 +295,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="7">
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="0.00000%"/>
+    <numFmt numFmtId="172" formatCode="0.000000%"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -807,11 +809,11 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -819,7 +821,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -829,27 +831,19 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -868,18 +862,13 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -887,173 +876,108 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="12" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="12" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="12" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="12" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="12" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="12" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1072,12 +996,80 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1396,7 +1388,7 @@
             <c:numRef>
               <c:f>[1]Presentation!$B$2:$AC$2</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1500000</c:v>
@@ -1711,7 +1703,7 @@
             <c:numRef>
               <c:f>[1]Presentation!$B$3:$AC$3</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1500000</c:v>
@@ -2026,7 +2018,7 @@
             <c:numRef>
               <c:f>[1]Presentation!$B$5:$AC$5</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1500000</c:v>
@@ -2341,7 +2333,7 @@
             <c:numRef>
               <c:f>[1]Presentation!$B$4:$AC$4</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1500000</c:v>
@@ -2656,7 +2648,7 @@
             <c:numRef>
               <c:f>[1]Presentation!$B$6:$AC$6</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1500000</c:v>
@@ -2837,7 +2829,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4431,9 +4423,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4471,7 +4463,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4577,7 +4569,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4719,7 +4711,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4729,1512 +4721,1490 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDFE6AC-02C8-434B-9E99-3924BB41C429}">
   <dimension ref="B4:S46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="B9:D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="5" customWidth="1"/>
-    <col min="4" max="10" width="12.42578125" style="5" customWidth="1"/>
-    <col min="11" max="12" width="12.5703125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="27.54296875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" style="5" customWidth="1"/>
+    <col min="4" max="10" width="12.453125" style="5" customWidth="1"/>
+    <col min="11" max="12" width="12.54296875" style="6" customWidth="1"/>
+    <col min="13" max="13" width="15.54296875" style="5" customWidth="1"/>
     <col min="14" max="14" width="11" style="5" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" style="5" customWidth="1"/>
-    <col min="16" max="16" width="4.42578125" style="5" customWidth="1"/>
-    <col min="17" max="23" width="12.5703125" style="5" customWidth="1"/>
-    <col min="24" max="16384" width="8.85546875" style="5"/>
+    <col min="15" max="15" width="15.81640625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="4.453125" style="5" customWidth="1"/>
+    <col min="17" max="23" width="12.54296875" style="5" customWidth="1"/>
+    <col min="24" max="16384" width="8.81640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C4" s="33" t="s">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C4" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="25" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="17" t="s">
         <v>4</v>
       </c>
       <c r="L4" s="1"/>
-      <c r="M4" s="65" t="s">
+      <c r="M4" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="Q4" s="65" t="s">
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="Q4" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="R4" s="65"/>
-      <c r="S4" s="65"/>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C5" s="32" t="s">
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C5" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="19">
+      <c r="D5" s="27"/>
+      <c r="E5" s="15">
         <v>0</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="16">
         <v>0.15</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="16">
         <v>0.3</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="16">
         <v>0.3</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="16">
         <v>0.47</v>
       </c>
       <c r="L5" s="2"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="64" t="s">
+      <c r="M5" s="39"/>
+      <c r="N5" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="64" t="s">
+      <c r="O5" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46" t="s">
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="46" t="s">
+      <c r="S5" s="28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C6" s="28" t="s">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C6" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="19">
+      <c r="D6" s="24"/>
+      <c r="E6" s="15">
         <v>0</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="16">
         <v>0.15</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="16">
         <v>0.3</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="16">
         <v>0.3</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="16">
         <v>0.47</v>
       </c>
       <c r="L6" s="2"/>
-      <c r="M6" s="30" t="s">
+      <c r="M6" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="N6" s="20">
+      <c r="N6" s="16">
         <v>0</v>
       </c>
-      <c r="O6" s="20">
+      <c r="O6" s="16">
         <v>1</v>
       </c>
-      <c r="Q6" s="67" t="s">
+      <c r="Q6" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C7" s="28" t="s">
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C7" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="19">
+      <c r="D7" s="24"/>
+      <c r="E7" s="15">
         <v>0</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="16">
         <v>0.1</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="16">
         <v>0.3</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="12">
         <v>0.23499999999999999</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="12">
         <v>0.23499999999999999</v>
       </c>
       <c r="L7" s="3"/>
-      <c r="M7" s="30" t="s">
+      <c r="M7" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="20">
+      <c r="N7" s="16">
         <v>0</v>
       </c>
-      <c r="O7" s="20">
+      <c r="O7" s="16">
         <v>1</v>
       </c>
-      <c r="Q7" s="67" t="s">
+      <c r="Q7" s="42" t="s">
         <v>16</v>
       </c>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="M8" s="30" t="s">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="M8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8" s="16">
         <v>0</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O8" s="16">
         <v>1</v>
       </c>
-      <c r="Q8" s="67" t="s">
+      <c r="Q8" s="42" t="s">
         <v>18</v>
       </c>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
     </row>
-    <row r="9" spans="2:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="49" t="s">
+    <row r="9" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="47" t="s">
+      <c r="H9" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="44" t="s">
+      <c r="J9" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="45"/>
-      <c r="M9" s="30" t="s">
+      <c r="K9" s="112"/>
+      <c r="M9" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="N9" s="20">
+      <c r="N9" s="16">
         <v>0</v>
       </c>
-      <c r="O9" s="20">
+      <c r="O9" s="16">
         <v>1</v>
       </c>
-      <c r="Q9" s="69" t="s">
+      <c r="Q9" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="R9" s="68">
+      <c r="R9" s="43">
         <v>0</v>
       </c>
       <c r="S9" s="8">
         <v>0.15</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B10" s="49"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="46" t="s">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B10" s="97"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="46" t="s">
+      <c r="K10" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="30" t="s">
+      <c r="M10" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="N10" s="20">
+      <c r="N10" s="16">
         <v>0</v>
       </c>
-      <c r="O10" s="20">
+      <c r="O10" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B11" s="56" t="s">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B11" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="118">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="118">
         <v>0.17420000000000002</v>
       </c>
-      <c r="E11" s="50">
+      <c r="E11" s="117">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="F11" s="50">
-        <f>(E11*J11*(1-$F$7))+(E11*K11*(1-$F$5))</f>
+      <c r="F11" s="117">
+        <f t="shared" ref="F11:F23" si="0">(E11*J11*(1-$F$7))+(E11*K11*(1-$F$5))</f>
         <v>7.5385499999999994E-2</v>
       </c>
-      <c r="G11" s="50">
-        <f>(E11*J11*(1-$G$7))+(E11*K11*(1-$G$5))</f>
+      <c r="G11" s="117">
+        <f t="shared" ref="G11:G23" si="1">(E11*J11*(1-$G$7))+(E11*K11*(1-$G$5))</f>
         <v>6.0899999999999989E-2</v>
       </c>
-      <c r="H11" s="50">
-        <f>(E11*J11*(1-$H$7))+(E11*K11*(1-$H$5))</f>
+      <c r="H11" s="117">
+        <f t="shared" ref="H11:H23" si="2">(E11*J11*(1-$H$7))+(E11*K11*(1-$H$5))</f>
         <v>6.2766149999999993E-2</v>
       </c>
-      <c r="I11" s="50">
-        <f>(E11*J11*(1-$I$7))+(E11*K11*(1-$I$5))</f>
+      <c r="I11" s="117">
+        <f t="shared" ref="I11:I23" si="3">(E11*J11*(1-$I$7))+(E11*K11*(1-$I$5))</f>
         <v>5.2856849999999997E-2</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="23">
         <v>0.33</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="23">
         <f>1-J11</f>
         <v>0.66999999999999993</v>
       </c>
-      <c r="M11" s="30" t="s">
+      <c r="M11" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="N11" s="20">
+      <c r="N11" s="16">
         <v>0</v>
       </c>
-      <c r="O11" s="20">
+      <c r="O11" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B12" s="56" t="s">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B12" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="118">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="118">
         <v>0.1711</v>
       </c>
-      <c r="E12" s="50">
+      <c r="E12" s="117">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="F12" s="50">
-        <f>(E12*J12*(1-$F$7))+(E12*K12*(1-$F$5))</f>
+      <c r="F12" s="117">
+        <f t="shared" si="0"/>
         <v>7.4130000000000001E-2</v>
       </c>
-      <c r="G12" s="50">
-        <f>(E12*J12*(1-$G$7))+(E12*K12*(1-$G$5))</f>
+      <c r="G12" s="117">
+        <f t="shared" si="1"/>
         <v>5.8799999999999991E-2</v>
       </c>
-      <c r="H12" s="50">
-        <f>(E12*J12*(1-$H$7))+(E12*K12*(1-$H$5))</f>
+      <c r="H12" s="117">
+        <f t="shared" si="2"/>
         <v>6.2349000000000002E-2</v>
       </c>
-      <c r="I12" s="50">
-        <f>(E12*J12*(1-$I$7))+(E12*K12*(1-$I$5))</f>
+      <c r="I12" s="117">
+        <f t="shared" si="3"/>
         <v>5.7350999999999999E-2</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="23">
         <v>0.65</v>
       </c>
-      <c r="K12" s="20">
-        <f t="shared" ref="K12:K23" si="0">1-J12</f>
+      <c r="K12" s="23">
+        <f t="shared" ref="K12:K23" si="4">1-J12</f>
         <v>0.35</v>
       </c>
-      <c r="M12" s="30" t="s">
+      <c r="M12" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="20">
+      <c r="N12" s="16">
         <v>0</v>
       </c>
-      <c r="O12" s="20">
+      <c r="O12" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B13" s="56" t="s">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B13" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="118">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="118">
         <v>0.20809999999999998</v>
       </c>
-      <c r="E13" s="50">
+      <c r="E13" s="117">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="F13" s="50">
-        <f>(E13*J13*(1-$F$7))+(E13*K13*(1-$F$5))</f>
+      <c r="F13" s="117">
+        <f t="shared" si="0"/>
         <v>6.7760000000000001E-2</v>
       </c>
-      <c r="G13" s="50">
-        <f>(E13*J13*(1-$G$7))+(E13*K13*(1-$G$5))</f>
+      <c r="G13" s="117">
+        <f t="shared" si="1"/>
         <v>5.389999999999999E-2</v>
       </c>
-      <c r="H13" s="50">
-        <f>(E13*J13*(1-$H$7))+(E13*K13*(1-$H$5))</f>
+      <c r="H13" s="117">
+        <f t="shared" si="2"/>
         <v>5.6902999999999995E-2</v>
       </c>
-      <c r="I13" s="50">
-        <f>(E13*J13*(1-$I$7))+(E13*K13*(1-$I$5))</f>
+      <c r="I13" s="117">
+        <f t="shared" si="3"/>
         <v>5.1667000000000005E-2</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J13" s="23">
         <v>0.6</v>
       </c>
-      <c r="K13" s="20">
+      <c r="K13" s="23">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="M13" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" s="16">
+        <v>0</v>
+      </c>
+      <c r="O13" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B14" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="118">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D14" s="118">
+        <v>0.1673</v>
+      </c>
+      <c r="E14" s="117">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F14" s="117">
         <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="M13" s="30" t="s">
+        <v>6.1285000000000006E-2</v>
+      </c>
+      <c r="G14" s="117">
+        <f t="shared" si="1"/>
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="H14" s="117">
+        <f t="shared" si="2"/>
+        <v>5.1320500000000005E-2</v>
+      </c>
+      <c r="I14" s="117">
+        <f t="shared" si="3"/>
+        <v>4.5489500000000002E-2</v>
+      </c>
+      <c r="J14" s="23">
+        <v>0.51</v>
+      </c>
+      <c r="K14" s="23">
+        <f t="shared" si="4"/>
+        <v>0.49</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" s="16">
+        <v>0</v>
+      </c>
+      <c r="O14" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B15" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="118">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="D15" s="118">
+        <v>0.2</v>
+      </c>
+      <c r="E15" s="117">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="F15" s="117">
+        <f t="shared" si="0"/>
+        <v>7.2874000000000008E-2</v>
+      </c>
+      <c r="G15" s="117">
+        <f t="shared" si="1"/>
+        <v>5.8099999999999999E-2</v>
+      </c>
+      <c r="H15" s="117">
+        <f t="shared" si="2"/>
+        <v>6.1121200000000001E-2</v>
+      </c>
+      <c r="I15" s="117">
+        <f t="shared" si="3"/>
+        <v>5.4912800000000005E-2</v>
+      </c>
+      <c r="J15" s="23">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K15" s="23">
+        <f t="shared" si="4"/>
+        <v>0.43999999999999995</v>
+      </c>
+      <c r="M15" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="16">
+        <v>0</v>
+      </c>
+      <c r="O15" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B16" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="118">
+        <v>0.06</v>
+      </c>
+      <c r="D16" s="118">
+        <v>0.15187690989570254</v>
+      </c>
+      <c r="E16" s="117">
+        <v>0.06</v>
+      </c>
+      <c r="F16" s="117">
+        <f t="shared" si="0"/>
+        <v>5.2109999999999997E-2</v>
+      </c>
+      <c r="G16" s="117">
+        <f t="shared" si="1"/>
+        <v>4.1999999999999996E-2</v>
+      </c>
+      <c r="H16" s="117">
+        <f t="shared" si="2"/>
+        <v>4.3442999999999996E-2</v>
+      </c>
+      <c r="I16" s="117">
+        <f t="shared" si="3"/>
+        <v>3.7016999999999994E-2</v>
+      </c>
+      <c r="J16" s="23">
+        <v>0.37</v>
+      </c>
+      <c r="K16" s="23">
+        <f t="shared" si="4"/>
+        <v>0.63</v>
+      </c>
+      <c r="M16" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" s="16">
+        <v>0</v>
+      </c>
+      <c r="O16" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B17" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="118">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D17" s="118">
+        <v>0.11709996021091178</v>
+      </c>
+      <c r="E17" s="117">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="F17" s="117">
+        <f t="shared" si="0"/>
+        <v>4.4226000000000001E-2</v>
+      </c>
+      <c r="G17" s="117">
+        <f t="shared" si="1"/>
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="H17" s="117">
+        <f t="shared" si="2"/>
+        <v>3.6433799999999995E-2</v>
+      </c>
+      <c r="I17" s="117">
+        <f t="shared" si="3"/>
+        <v>2.7682200000000001E-2</v>
+      </c>
+      <c r="J17" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="K17" s="23">
+        <f t="shared" si="4"/>
+        <v>0.99</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="N17" s="16">
+        <v>0</v>
+      </c>
+      <c r="O17" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B18" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="N13" s="20">
+      <c r="C18" s="118">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D18" s="118">
+        <v>0.2083748764772074</v>
+      </c>
+      <c r="E18" s="117">
+        <v>4.1999999999999996E-2</v>
+      </c>
+      <c r="F18" s="117">
+        <f t="shared" si="0"/>
+        <v>3.5720999999999996E-2</v>
+      </c>
+      <c r="G18" s="117">
+        <f t="shared" si="1"/>
+        <v>2.9399999999999992E-2</v>
+      </c>
+      <c r="H18" s="117">
+        <f t="shared" si="2"/>
+        <v>2.9427299999999993E-2</v>
+      </c>
+      <c r="I18" s="117">
+        <f t="shared" si="3"/>
+        <v>2.2358699999999995E-2</v>
+      </c>
+      <c r="J18" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="K18" s="23">
+        <f t="shared" si="4"/>
+        <v>0.99</v>
+      </c>
+      <c r="M18" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="N18" s="16">
         <v>0</v>
       </c>
-      <c r="O13" s="20">
+      <c r="O18" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B14" s="56" t="s">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B19" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="118">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D19" s="118">
+        <v>3.9376015365837888E-2</v>
+      </c>
+      <c r="E19" s="117">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F19" s="117">
+        <f t="shared" si="0"/>
+        <v>3.2319000000000001E-2</v>
+      </c>
+      <c r="G19" s="117">
+        <f t="shared" si="1"/>
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="H19" s="117">
+        <f t="shared" si="2"/>
+        <v>2.6624700000000001E-2</v>
+      </c>
+      <c r="I19" s="117">
+        <f t="shared" si="3"/>
+        <v>2.0229300000000002E-2</v>
+      </c>
+      <c r="J19" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="K19" s="23">
+        <f t="shared" si="4"/>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B20" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="118">
+        <v>3.6000000000000004E-2</v>
+      </c>
+      <c r="D20" s="118">
+        <v>3.5757030774004439E-2</v>
+      </c>
+      <c r="E20" s="117">
+        <v>3.6000000000000004E-2</v>
+      </c>
+      <c r="F20" s="117">
+        <f t="shared" si="0"/>
+        <v>3.0600000000000002E-2</v>
+      </c>
+      <c r="G20" s="117">
+        <f t="shared" si="1"/>
+        <v>2.52E-2</v>
+      </c>
+      <c r="H20" s="117">
+        <f t="shared" si="2"/>
+        <v>2.52E-2</v>
+      </c>
+      <c r="I20" s="117">
+        <f t="shared" si="3"/>
+        <v>1.9080000000000003E-2</v>
+      </c>
+      <c r="J20" s="23">
+        <v>0</v>
+      </c>
+      <c r="K20" s="23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B21" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="118">
+        <v>5.4000000000000006E-2</v>
+      </c>
+      <c r="D21" s="118">
+        <v>0.11122668592661025</v>
+      </c>
+      <c r="E21" s="117">
+        <v>5.4000000000000006E-2</v>
+      </c>
+      <c r="F21" s="117">
+        <f t="shared" si="0"/>
+        <v>4.5927000000000003E-2</v>
+      </c>
+      <c r="G21" s="117">
+        <f t="shared" si="1"/>
+        <v>3.7800000000000007E-2</v>
+      </c>
+      <c r="H21" s="117">
+        <f t="shared" si="2"/>
+        <v>3.7835100000000003E-2</v>
+      </c>
+      <c r="I21" s="117">
+        <f t="shared" si="3"/>
+        <v>2.8746900000000006E-2</v>
+      </c>
+      <c r="J21" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="K21" s="23">
+        <f t="shared" si="4"/>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B22" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="118">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D22" s="118">
+        <v>0.12621306711658131</v>
+      </c>
+      <c r="E22" s="117">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="F22" s="117">
+        <f t="shared" si="0"/>
+        <v>5.6983499999999999E-2</v>
+      </c>
+      <c r="G22" s="117">
+        <f t="shared" si="1"/>
+        <v>4.6899999999999997E-2</v>
+      </c>
+      <c r="H22" s="117">
+        <f t="shared" si="2"/>
+        <v>4.6943550000000001E-2</v>
+      </c>
+      <c r="I22" s="117">
+        <f t="shared" si="3"/>
+        <v>3.5667450000000003E-2</v>
+      </c>
+      <c r="J22" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="K22" s="23">
+        <f t="shared" si="4"/>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B23" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="118">
+        <v>2.8999999999999998E-2</v>
+      </c>
+      <c r="D23" s="118">
+        <v>6.1390655524295604E-3</v>
+      </c>
+      <c r="E23" s="117">
+        <v>2.8999999999999998E-2</v>
+      </c>
+      <c r="F23" s="117">
+        <f t="shared" si="0"/>
+        <v>2.4649999999999998E-2</v>
+      </c>
+      <c r="G23" s="117">
+        <f t="shared" si="1"/>
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="H23" s="117">
+        <f t="shared" si="2"/>
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="I23" s="117">
+        <f t="shared" si="3"/>
+        <v>1.537E-2</v>
+      </c>
+      <c r="J23" s="23">
+        <v>0</v>
+      </c>
+      <c r="K23" s="23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B25" s="9"/>
+      <c r="C25" s="110" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="106" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="106" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="106" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="29">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D14" s="29">
-        <v>0.1673</v>
-      </c>
-      <c r="E14" s="50">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F14" s="50">
-        <f>(E14*J14*(1-$F$7))+(E14*K14*(1-$F$5))</f>
-        <v>6.1285000000000006E-2</v>
-      </c>
-      <c r="G14" s="50">
-        <f>(E14*J14*(1-$G$7))+(E14*K14*(1-$G$5))</f>
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="H14" s="50">
-        <f>(E14*J14*(1-$H$7))+(E14*K14*(1-$H$5))</f>
-        <v>5.1320500000000005E-2</v>
-      </c>
-      <c r="I14" s="50">
-        <f>(E14*J14*(1-$I$7))+(E14*K14*(1-$I$5))</f>
-        <v>4.5489500000000002E-2</v>
-      </c>
-      <c r="J14" s="20">
-        <v>0.51</v>
-      </c>
-      <c r="K14" s="20">
-        <f t="shared" si="0"/>
-        <v>0.49</v>
-      </c>
-      <c r="M14" s="30" t="s">
+      <c r="G25" s="106" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="106" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="106" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="20">
-        <v>0</v>
-      </c>
-      <c r="O14" s="20">
+      <c r="L25" s="106" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" s="106" t="s">
+        <v>24</v>
+      </c>
+      <c r="N25" s="106" t="s">
+        <v>25</v>
+      </c>
+      <c r="O25" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="P25" s="107"/>
+      <c r="Q25" s="107"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B26" s="9"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="106"/>
+      <c r="L26" s="106"/>
+      <c r="M26" s="106"/>
+      <c r="N26" s="106"/>
+      <c r="O26" s="106"/>
+      <c r="P26" s="107"/>
+      <c r="Q26" s="107"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B27" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="37">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="56" t="s">
+      <c r="D27" s="38">
+        <v>0.46268900000000002</v>
+      </c>
+      <c r="E27" s="38">
+        <v>0.52839599999999998</v>
+      </c>
+      <c r="F27" s="38">
+        <v>0.58221699999999998</v>
+      </c>
+      <c r="G27" s="38">
+        <v>0.59844600000000003</v>
+      </c>
+      <c r="H27" s="38">
+        <v>0.56000799999999995</v>
+      </c>
+      <c r="I27" s="38">
+        <v>-0.16219</v>
+      </c>
+      <c r="J27" s="38">
+        <v>0.123853</v>
+      </c>
+      <c r="K27" s="38">
+        <v>5.8830000000000002E-3</v>
+      </c>
+      <c r="L27" s="38">
+        <v>0.13919599999999999</v>
+      </c>
+      <c r="M27" s="38">
+        <v>0.67280200000000001</v>
+      </c>
+      <c r="N27" s="38">
+        <v>7.2523000000000004E-2</v>
+      </c>
+      <c r="O27" s="45">
+        <v>-3.9289999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B28" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="34">
+        <v>0.46268900000000002</v>
+      </c>
+      <c r="D28" s="13">
+        <v>1</v>
+      </c>
+      <c r="E28" s="13">
+        <v>0.79149499999999995</v>
+      </c>
+      <c r="F28" s="13">
+        <v>0.77065799999999995</v>
+      </c>
+      <c r="G28" s="13">
+        <v>0.50735600000000003</v>
+      </c>
+      <c r="H28" s="13">
+        <v>0.60417299999999996</v>
+      </c>
+      <c r="I28" s="13">
+        <v>0.46720600000000001</v>
+      </c>
+      <c r="J28" s="13">
+        <v>0.100355</v>
+      </c>
+      <c r="K28" s="13">
+        <v>0.10730000000000001</v>
+      </c>
+      <c r="L28" s="13">
+        <v>-5.1000000000000004E-4</v>
+      </c>
+      <c r="M28" s="13">
+        <v>0.28680699999999998</v>
+      </c>
+      <c r="N28" s="13">
+        <v>0.48788999999999999</v>
+      </c>
+      <c r="O28" s="29">
+        <v>-6.6549999999999998E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B29" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="34">
+        <v>0.52839599999999998</v>
+      </c>
+      <c r="D29" s="13">
+        <v>0.79149499999999995</v>
+      </c>
+      <c r="E29" s="13">
+        <v>1</v>
+      </c>
+      <c r="F29" s="13">
+        <v>0.664269</v>
+      </c>
+      <c r="G29" s="13">
+        <v>0.52513299999999996</v>
+      </c>
+      <c r="H29" s="13">
+        <v>0.60655199999999998</v>
+      </c>
+      <c r="I29" s="13">
+        <v>0.34372999999999998</v>
+      </c>
+      <c r="J29" s="13">
+        <v>0.16427700000000001</v>
+      </c>
+      <c r="K29" s="13">
+        <v>4.7697000000000003E-2</v>
+      </c>
+      <c r="L29" s="13">
+        <v>-5.806E-2</v>
+      </c>
+      <c r="M29" s="13">
+        <v>0.37597599999999998</v>
+      </c>
+      <c r="N29" s="13">
+        <v>0.34953800000000002</v>
+      </c>
+      <c r="O29" s="29">
+        <v>-3.6069999999999998E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B30" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="34">
+        <v>0.58221699999999998</v>
+      </c>
+      <c r="D30" s="13">
+        <v>0.77065799999999995</v>
+      </c>
+      <c r="E30" s="13">
+        <v>0.664269</v>
+      </c>
+      <c r="F30" s="13">
+        <v>1</v>
+      </c>
+      <c r="G30" s="13">
+        <v>0.61929000000000001</v>
+      </c>
+      <c r="H30" s="13">
+        <v>0.62721300000000002</v>
+      </c>
+      <c r="I30" s="13">
+        <v>0.299626</v>
+      </c>
+      <c r="J30" s="13">
+        <v>0.13957900000000001</v>
+      </c>
+      <c r="K30" s="13">
+        <v>6.8987999999999994E-2</v>
+      </c>
+      <c r="L30" s="13">
+        <v>1.7149999999999999E-3</v>
+      </c>
+      <c r="M30" s="13">
+        <v>0.42957000000000001</v>
+      </c>
+      <c r="N30" s="13">
+        <v>0.36484899999999998</v>
+      </c>
+      <c r="O30" s="29">
+        <v>-5.919E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B31" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="29">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="D15" s="29">
-        <v>0.2</v>
-      </c>
-      <c r="E15" s="50">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="F15" s="50">
-        <f>(E15*J15*(1-$F$7))+(E15*K15*(1-$F$5))</f>
-        <v>7.2874000000000008E-2</v>
-      </c>
-      <c r="G15" s="50">
-        <f>(E15*J15*(1-$G$7))+(E15*K15*(1-$G$5))</f>
-        <v>5.8099999999999999E-2</v>
-      </c>
-      <c r="H15" s="50">
-        <f>(E15*J15*(1-$H$7))+(E15*K15*(1-$H$5))</f>
-        <v>6.1121200000000001E-2</v>
-      </c>
-      <c r="I15" s="50">
-        <f>(E15*J15*(1-$I$7))+(E15*K15*(1-$I$5))</f>
-        <v>5.4912800000000005E-2</v>
-      </c>
-      <c r="J15" s="20">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="K15" s="20">
-        <f t="shared" si="0"/>
-        <v>0.43999999999999995</v>
-      </c>
-      <c r="M15" s="30" t="s">
+      <c r="C31" s="34">
+        <v>0.59844600000000003</v>
+      </c>
+      <c r="D31" s="13">
+        <v>0.50735600000000003</v>
+      </c>
+      <c r="E31" s="13">
+        <v>0.52513299999999996</v>
+      </c>
+      <c r="F31" s="13">
+        <v>0.61929000000000001</v>
+      </c>
+      <c r="G31" s="13">
+        <v>1</v>
+      </c>
+      <c r="H31" s="13">
+        <v>0.48537599999999997</v>
+      </c>
+      <c r="I31" s="13">
+        <v>7.9337000000000005E-2</v>
+      </c>
+      <c r="J31" s="13">
+        <v>8.2087999999999994E-2</v>
+      </c>
+      <c r="K31" s="13">
+        <v>-2.811E-2</v>
+      </c>
+      <c r="L31" s="13">
+        <v>-1.5520000000000001E-2</v>
+      </c>
+      <c r="M31" s="13">
+        <v>0.59831999999999996</v>
+      </c>
+      <c r="N31" s="13">
+        <v>0.32464100000000001</v>
+      </c>
+      <c r="O31" s="29">
+        <v>-2.681E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B32" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="34">
+        <v>0.56000799999999995</v>
+      </c>
+      <c r="D32" s="13">
+        <v>0.60417299999999996</v>
+      </c>
+      <c r="E32" s="13">
+        <v>0.60655199999999998</v>
+      </c>
+      <c r="F32" s="13">
+        <v>0.62721300000000002</v>
+      </c>
+      <c r="G32" s="13">
+        <v>0.48537599999999997</v>
+      </c>
+      <c r="H32" s="13">
+        <v>1</v>
+      </c>
+      <c r="I32" s="13">
+        <v>0.20561199999999999</v>
+      </c>
+      <c r="J32" s="13">
+        <v>6.5917000000000003E-2</v>
+      </c>
+      <c r="K32" s="13">
+        <v>0.230711</v>
+      </c>
+      <c r="L32" s="13">
+        <v>0.23639499999999999</v>
+      </c>
+      <c r="M32" s="13">
+        <v>0.47003600000000001</v>
+      </c>
+      <c r="N32" s="13">
+        <v>0.41226800000000002</v>
+      </c>
+      <c r="O32" s="29">
+        <v>2.356E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B33" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="34">
+        <v>-0.16219</v>
+      </c>
+      <c r="D33" s="13">
+        <v>0.46720600000000001</v>
+      </c>
+      <c r="E33" s="13">
+        <v>0.34372999999999998</v>
+      </c>
+      <c r="F33" s="13">
+        <v>0.299626</v>
+      </c>
+      <c r="G33" s="13">
+        <v>7.9337000000000005E-2</v>
+      </c>
+      <c r="H33" s="13">
+        <v>0.20561199999999999</v>
+      </c>
+      <c r="I33" s="13">
+        <v>1</v>
+      </c>
+      <c r="J33" s="13">
+        <v>0.18801399999999999</v>
+      </c>
+      <c r="K33" s="13">
+        <v>0.15270600000000001</v>
+      </c>
+      <c r="L33" s="13">
+        <v>-0.11461</v>
+      </c>
+      <c r="M33" s="13">
+        <v>-0.30198000000000003</v>
+      </c>
+      <c r="N33" s="13">
+        <v>0.64590999999999998</v>
+      </c>
+      <c r="O33" s="29">
+        <v>5.0603000000000002E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B34" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="34">
+        <v>0.123853</v>
+      </c>
+      <c r="D34" s="13">
+        <v>0.100355</v>
+      </c>
+      <c r="E34" s="13">
+        <v>0.16427700000000001</v>
+      </c>
+      <c r="F34" s="13">
+        <v>0.13957900000000001</v>
+      </c>
+      <c r="G34" s="13">
+        <v>8.2087999999999994E-2</v>
+      </c>
+      <c r="H34" s="13">
+        <v>6.5917000000000003E-2</v>
+      </c>
+      <c r="I34" s="13">
+        <v>0.18801399999999999</v>
+      </c>
+      <c r="J34" s="13">
+        <v>1</v>
+      </c>
+      <c r="K34" s="13">
+        <v>-0.12670999999999999</v>
+      </c>
+      <c r="L34" s="13">
+        <v>-0.19519</v>
+      </c>
+      <c r="M34" s="13">
+        <v>8.7570999999999996E-2</v>
+      </c>
+      <c r="N34" s="13">
+        <v>3.8482000000000002E-2</v>
+      </c>
+      <c r="O34" s="29">
+        <v>1.1105E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B35" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="34">
+        <v>5.8830000000000002E-3</v>
+      </c>
+      <c r="D35" s="13">
+        <v>0.10730000000000001</v>
+      </c>
+      <c r="E35" s="13">
+        <v>4.7697000000000003E-2</v>
+      </c>
+      <c r="F35" s="13">
+        <v>6.8987999999999994E-2</v>
+      </c>
+      <c r="G35" s="13">
+        <v>-2.811E-2</v>
+      </c>
+      <c r="H35" s="13">
+        <v>0.230711</v>
+      </c>
+      <c r="I35" s="13">
+        <v>0.15270600000000001</v>
+      </c>
+      <c r="J35" s="13">
+        <v>-0.12670999999999999</v>
+      </c>
+      <c r="K35" s="13">
+        <v>1</v>
+      </c>
+      <c r="L35" s="13">
+        <v>0.70652499999999996</v>
+      </c>
+      <c r="M35" s="13">
+        <v>7.9466999999999996E-2</v>
+      </c>
+      <c r="N35" s="13">
+        <v>0.44623800000000002</v>
+      </c>
+      <c r="O35" s="29">
+        <v>0.23028799999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B36" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="20">
-        <v>0</v>
-      </c>
-      <c r="O15" s="20">
+      <c r="C36" s="34">
+        <v>0.13919599999999999</v>
+      </c>
+      <c r="D36" s="13">
+        <v>-5.1000000000000004E-4</v>
+      </c>
+      <c r="E36" s="13">
+        <v>-5.806E-2</v>
+      </c>
+      <c r="F36" s="13">
+        <v>1.7149999999999999E-3</v>
+      </c>
+      <c r="G36" s="13">
+        <v>-0.1552</v>
+      </c>
+      <c r="H36" s="13">
+        <v>0.23639499999999999</v>
+      </c>
+      <c r="I36" s="13">
+        <v>-0.11461</v>
+      </c>
+      <c r="J36" s="13">
+        <v>-0.19519</v>
+      </c>
+      <c r="K36" s="13">
+        <v>0.70652499999999996</v>
+      </c>
+      <c r="L36" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B16" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="29">
-        <v>0.06</v>
-      </c>
-      <c r="D16" s="29">
-        <v>0.15187690989570254</v>
-      </c>
-      <c r="E16" s="50">
-        <v>0.06</v>
-      </c>
-      <c r="F16" s="50">
-        <f>(E16*J16*(1-$F$7))+(E16*K16*(1-$F$5))</f>
-        <v>5.2109999999999997E-2</v>
-      </c>
-      <c r="G16" s="50">
-        <f>(E16*J16*(1-$G$7))+(E16*K16*(1-$G$5))</f>
-        <v>4.1999999999999996E-2</v>
-      </c>
-      <c r="H16" s="50">
-        <f>(E16*J16*(1-$H$7))+(E16*K16*(1-$H$5))</f>
-        <v>4.3442999999999996E-2</v>
-      </c>
-      <c r="I16" s="50">
-        <f>(E16*J16*(1-$I$7))+(E16*K16*(1-$I$5))</f>
-        <v>3.7016999999999994E-2</v>
-      </c>
-      <c r="J16" s="20">
-        <v>0.37</v>
-      </c>
-      <c r="K16" s="20">
-        <f t="shared" si="0"/>
-        <v>0.63</v>
-      </c>
-      <c r="M16" s="30" t="s">
+      <c r="M36" s="13">
+        <v>0.28224500000000002</v>
+      </c>
+      <c r="N36" s="13">
+        <v>0.24412400000000001</v>
+      </c>
+      <c r="O36" s="29">
+        <v>0.22785</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B37" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="20">
-        <v>0</v>
-      </c>
-      <c r="O16" s="20">
+      <c r="C37" s="34">
+        <v>0.67280200000000001</v>
+      </c>
+      <c r="D37" s="13">
+        <v>0.28680699999999998</v>
+      </c>
+      <c r="E37" s="13">
+        <v>0.37597599999999998</v>
+      </c>
+      <c r="F37" s="13">
+        <v>0.42957000000000001</v>
+      </c>
+      <c r="G37" s="13">
+        <v>0.59831999999999996</v>
+      </c>
+      <c r="H37" s="13">
+        <v>0.47003600000000001</v>
+      </c>
+      <c r="I37" s="13">
+        <v>-0.30198000000000003</v>
+      </c>
+      <c r="J37" s="13">
+        <v>8.7570999999999996E-2</v>
+      </c>
+      <c r="K37" s="13">
+        <v>7.9466999999999996E-2</v>
+      </c>
+      <c r="L37" s="13">
+        <v>0.28224500000000002</v>
+      </c>
+      <c r="M37" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B17" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="29">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="D17" s="29">
-        <v>0.11709996021091178</v>
-      </c>
-      <c r="E17" s="50">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="F17" s="50">
-        <f>(E17*J17*(1-$F$7))+(E17*K17*(1-$F$5))</f>
-        <v>4.4226000000000001E-2</v>
-      </c>
-      <c r="G17" s="50">
-        <f>(E17*J17*(1-$G$7))+(E17*K17*(1-$G$5))</f>
-        <v>3.6400000000000002E-2</v>
-      </c>
-      <c r="H17" s="50">
-        <f>(E17*J17*(1-$H$7))+(E17*K17*(1-$H$5))</f>
-        <v>3.6433799999999995E-2</v>
-      </c>
-      <c r="I17" s="50">
-        <f>(E17*J17*(1-$I$7))+(E17*K17*(1-$I$5))</f>
-        <v>2.7682200000000001E-2</v>
-      </c>
-      <c r="J17" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="K17" s="20">
-        <f t="shared" si="0"/>
-        <v>0.99</v>
-      </c>
-      <c r="M17" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="N17" s="20">
-        <v>0</v>
-      </c>
-      <c r="O17" s="20">
+      <c r="N37" s="13">
+        <v>0.17721300000000001</v>
+      </c>
+      <c r="O37" s="29">
+        <v>2.4840000000000001E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B38" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="34">
+        <v>7.2523000000000004E-2</v>
+      </c>
+      <c r="D38" s="13">
+        <v>0.48788999999999999</v>
+      </c>
+      <c r="E38" s="13">
+        <v>0.34953800000000002</v>
+      </c>
+      <c r="F38" s="13">
+        <v>0.36484899999999998</v>
+      </c>
+      <c r="G38" s="13">
+        <v>0.32464100000000001</v>
+      </c>
+      <c r="H38" s="13">
+        <v>0.41226800000000002</v>
+      </c>
+      <c r="I38" s="13">
+        <v>0.64590999999999998</v>
+      </c>
+      <c r="J38" s="13">
+        <v>3.8482000000000002E-2</v>
+      </c>
+      <c r="K38" s="13">
+        <v>0.44623800000000002</v>
+      </c>
+      <c r="L38" s="13">
+        <v>0.24412400000000001</v>
+      </c>
+      <c r="M38" s="13">
+        <v>0.17721300000000001</v>
+      </c>
+      <c r="N38" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B18" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="29">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="D18" s="29">
-        <v>0.2083748764772074</v>
-      </c>
-      <c r="E18" s="50">
-        <v>4.1999999999999996E-2</v>
-      </c>
-      <c r="F18" s="50">
-        <f>(E18*J18*(1-$F$7))+(E18*K18*(1-$F$5))</f>
-        <v>3.5720999999999996E-2</v>
-      </c>
-      <c r="G18" s="50">
-        <f>(E18*J18*(1-$G$7))+(E18*K18*(1-$G$5))</f>
-        <v>2.9399999999999992E-2</v>
-      </c>
-      <c r="H18" s="50">
-        <f>(E18*J18*(1-$H$7))+(E18*K18*(1-$H$5))</f>
-        <v>2.9427299999999993E-2</v>
-      </c>
-      <c r="I18" s="50">
-        <f>(E18*J18*(1-$I$7))+(E18*K18*(1-$I$5))</f>
-        <v>2.2358699999999995E-2</v>
-      </c>
-      <c r="J18" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="K18" s="20">
-        <f t="shared" si="0"/>
-        <v>0.99</v>
-      </c>
-      <c r="M18" s="30" t="s">
+      <c r="O38" s="29">
+        <v>0.115046</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B39" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="N18" s="20">
-        <v>0</v>
-      </c>
-      <c r="O18" s="20">
+      <c r="C39" s="35">
+        <v>-3.9289999999999999E-2</v>
+      </c>
+      <c r="D39" s="30">
+        <v>-6.6549999999999998E-2</v>
+      </c>
+      <c r="E39" s="30">
+        <v>-3.6069999999999998E-2</v>
+      </c>
+      <c r="F39" s="30">
+        <v>-5.919E-2</v>
+      </c>
+      <c r="G39" s="30">
+        <v>-2.681E-2</v>
+      </c>
+      <c r="H39" s="30">
+        <v>2.356E-3</v>
+      </c>
+      <c r="I39" s="30">
+        <v>5.0603000000000002E-2</v>
+      </c>
+      <c r="J39" s="30">
+        <v>1.1105E-2</v>
+      </c>
+      <c r="K39" s="30">
+        <v>0.23028799999999999</v>
+      </c>
+      <c r="L39" s="30">
+        <v>0.22785</v>
+      </c>
+      <c r="M39" s="30">
+        <v>2.4840000000000001E-2</v>
+      </c>
+      <c r="N39" s="30">
+        <v>0.115046</v>
+      </c>
+      <c r="O39" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B19" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="29">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="D19" s="29">
-        <v>3.9376015365837888E-2</v>
-      </c>
-      <c r="E19" s="50">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="F19" s="50">
-        <f>(E19*J19*(1-$F$7))+(E19*K19*(1-$F$5))</f>
-        <v>3.2319000000000001E-2</v>
-      </c>
-      <c r="G19" s="50">
-        <f>(E19*J19*(1-$G$7))+(E19*K19*(1-$G$5))</f>
-        <v>2.6599999999999999E-2</v>
-      </c>
-      <c r="H19" s="50">
-        <f>(E19*J19*(1-$H$7))+(E19*K19*(1-$H$5))</f>
-        <v>2.6624700000000001E-2</v>
-      </c>
-      <c r="I19" s="50">
-        <f>(E19*J19*(1-$I$7))+(E19*K19*(1-$I$5))</f>
-        <v>2.0229300000000002E-2</v>
-      </c>
-      <c r="J19" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="K19" s="20">
-        <f t="shared" si="0"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B20" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="29">
-        <v>3.6000000000000004E-2</v>
-      </c>
-      <c r="D20" s="29">
-        <v>3.5757030774004439E-2</v>
-      </c>
-      <c r="E20" s="50">
-        <v>3.6000000000000004E-2</v>
-      </c>
-      <c r="F20" s="50">
-        <f>(E20*J20*(1-$F$7))+(E20*K20*(1-$F$5))</f>
-        <v>3.0600000000000002E-2</v>
-      </c>
-      <c r="G20" s="50">
-        <f>(E20*J20*(1-$G$7))+(E20*K20*(1-$G$5))</f>
-        <v>2.52E-2</v>
-      </c>
-      <c r="H20" s="50">
-        <f>(E20*J20*(1-$H$7))+(E20*K20*(1-$H$5))</f>
-        <v>2.52E-2</v>
-      </c>
-      <c r="I20" s="50">
-        <f>(E20*J20*(1-$I$7))+(E20*K20*(1-$I$5))</f>
-        <v>1.9080000000000003E-2</v>
-      </c>
-      <c r="J20" s="20">
-        <v>0</v>
-      </c>
-      <c r="K20" s="20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B21" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="29">
-        <v>5.4000000000000006E-2</v>
-      </c>
-      <c r="D21" s="29">
-        <v>0.11122668592661025</v>
-      </c>
-      <c r="E21" s="50">
-        <v>5.4000000000000006E-2</v>
-      </c>
-      <c r="F21" s="50">
-        <f>(E21*J21*(1-$F$7))+(E21*K21*(1-$F$5))</f>
-        <v>4.5927000000000003E-2</v>
-      </c>
-      <c r="G21" s="50">
-        <f>(E21*J21*(1-$G$7))+(E21*K21*(1-$G$5))</f>
-        <v>3.7800000000000007E-2</v>
-      </c>
-      <c r="H21" s="50">
-        <f>(E21*J21*(1-$H$7))+(E21*K21*(1-$H$5))</f>
-        <v>3.7835100000000003E-2</v>
-      </c>
-      <c r="I21" s="50">
-        <f>(E21*J21*(1-$I$7))+(E21*K21*(1-$I$5))</f>
-        <v>2.8746900000000006E-2</v>
-      </c>
-      <c r="J21" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="K21" s="20">
-        <f t="shared" si="0"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="29">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="D22" s="29">
-        <v>0.12621306711658131</v>
-      </c>
-      <c r="E22" s="50">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="F22" s="50">
-        <f>(E22*J22*(1-$F$7))+(E22*K22*(1-$F$5))</f>
-        <v>5.6983499999999999E-2</v>
-      </c>
-      <c r="G22" s="50">
-        <f>(E22*J22*(1-$G$7))+(E22*K22*(1-$G$5))</f>
-        <v>4.6899999999999997E-2</v>
-      </c>
-      <c r="H22" s="50">
-        <f>(E22*J22*(1-$H$7))+(E22*K22*(1-$H$5))</f>
-        <v>4.6943550000000001E-2</v>
-      </c>
-      <c r="I22" s="50">
-        <f>(E22*J22*(1-$I$7))+(E22*K22*(1-$I$5))</f>
-        <v>3.5667450000000003E-2</v>
-      </c>
-      <c r="J22" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="K22" s="20">
-        <f t="shared" si="0"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B23" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="29">
-        <v>2.8999999999999998E-2</v>
-      </c>
-      <c r="D23" s="29">
-        <v>6.1390655524295604E-3</v>
-      </c>
-      <c r="E23" s="50">
-        <v>2.8999999999999998E-2</v>
-      </c>
-      <c r="F23" s="50">
-        <f>(E23*J23*(1-$F$7))+(E23*K23*(1-$F$5))</f>
-        <v>2.4649999999999998E-2</v>
-      </c>
-      <c r="G23" s="50">
-        <f>(E23*J23*(1-$G$7))+(E23*K23*(1-$G$5))</f>
-        <v>2.0299999999999999E-2</v>
-      </c>
-      <c r="H23" s="50">
-        <f>(E23*J23*(1-$H$7))+(E23*K23*(1-$H$5))</f>
-        <v>2.0299999999999999E-2</v>
-      </c>
-      <c r="I23" s="50">
-        <f>(E23*J23*(1-$I$7))+(E23*K23*(1-$I$5))</f>
-        <v>1.537E-2</v>
-      </c>
-      <c r="J23" s="20">
-        <v>0</v>
-      </c>
-      <c r="K23" s="20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B25" s="27"/>
-      <c r="C25" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="J25" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="K25" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="M25" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="N25" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="O25" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B26" s="27"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="62"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B27" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="60">
-        <v>1</v>
-      </c>
-      <c r="D27" s="61">
-        <v>0.46268900000000002</v>
-      </c>
-      <c r="E27" s="61">
-        <v>0.52839599999999998</v>
-      </c>
-      <c r="F27" s="61">
-        <v>0.58221699999999998</v>
-      </c>
-      <c r="G27" s="61">
-        <v>0.59844600000000003</v>
-      </c>
-      <c r="H27" s="61">
-        <v>0.56000799999999995</v>
-      </c>
-      <c r="I27" s="61">
-        <v>-0.16219</v>
-      </c>
-      <c r="J27" s="61">
-        <v>0.123853</v>
-      </c>
-      <c r="K27" s="61">
-        <v>5.8830000000000002E-3</v>
-      </c>
-      <c r="L27" s="61">
-        <v>0.13919599999999999</v>
-      </c>
-      <c r="M27" s="61">
-        <v>0.67280200000000001</v>
-      </c>
-      <c r="N27" s="61">
-        <v>7.2523000000000004E-2</v>
-      </c>
-      <c r="O27" s="70">
-        <v>-3.9289999999999999E-2</v>
-      </c>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B28" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="57">
-        <v>0.46268900000000002</v>
-      </c>
-      <c r="D28" s="15">
-        <v>1</v>
-      </c>
-      <c r="E28" s="15">
-        <v>0.79149499999999995</v>
-      </c>
-      <c r="F28" s="15">
-        <v>0.77065799999999995</v>
-      </c>
-      <c r="G28" s="15">
-        <v>0.50735600000000003</v>
-      </c>
-      <c r="H28" s="15">
-        <v>0.60417299999999996</v>
-      </c>
-      <c r="I28" s="15">
-        <v>0.46720600000000001</v>
-      </c>
-      <c r="J28" s="15">
-        <v>0.100355</v>
-      </c>
-      <c r="K28" s="15">
-        <v>0.10730000000000001</v>
-      </c>
-      <c r="L28" s="15">
-        <v>-5.1000000000000004E-4</v>
-      </c>
-      <c r="M28" s="15">
-        <v>0.28680699999999998</v>
-      </c>
-      <c r="N28" s="15">
-        <v>0.48788999999999999</v>
-      </c>
-      <c r="O28" s="51">
-        <v>-6.6549999999999998E-2</v>
-      </c>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B29" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="57">
-        <v>0.52839599999999998</v>
-      </c>
-      <c r="D29" s="15">
-        <v>0.79149499999999995</v>
-      </c>
-      <c r="E29" s="15">
-        <v>1</v>
-      </c>
-      <c r="F29" s="15">
-        <v>0.664269</v>
-      </c>
-      <c r="G29" s="15">
-        <v>0.52513299999999996</v>
-      </c>
-      <c r="H29" s="15">
-        <v>0.60655199999999998</v>
-      </c>
-      <c r="I29" s="15">
-        <v>0.34372999999999998</v>
-      </c>
-      <c r="J29" s="15">
-        <v>0.16427700000000001</v>
-      </c>
-      <c r="K29" s="15">
-        <v>4.7697000000000003E-2</v>
-      </c>
-      <c r="L29" s="15">
-        <v>-5.806E-2</v>
-      </c>
-      <c r="M29" s="15">
-        <v>0.37597599999999998</v>
-      </c>
-      <c r="N29" s="15">
-        <v>0.34953800000000002</v>
-      </c>
-      <c r="O29" s="51">
-        <v>-3.6069999999999998E-2</v>
-      </c>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B30" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="57">
-        <v>0.58221699999999998</v>
-      </c>
-      <c r="D30" s="15">
-        <v>0.77065799999999995</v>
-      </c>
-      <c r="E30" s="15">
-        <v>0.664269</v>
-      </c>
-      <c r="F30" s="15">
-        <v>1</v>
-      </c>
-      <c r="G30" s="15">
-        <v>0.61929000000000001</v>
-      </c>
-      <c r="H30" s="15">
-        <v>0.62721300000000002</v>
-      </c>
-      <c r="I30" s="15">
-        <v>0.299626</v>
-      </c>
-      <c r="J30" s="15">
-        <v>0.13957900000000001</v>
-      </c>
-      <c r="K30" s="15">
-        <v>6.8987999999999994E-2</v>
-      </c>
-      <c r="L30" s="15">
-        <v>1.7149999999999999E-3</v>
-      </c>
-      <c r="M30" s="15">
-        <v>0.42957000000000001</v>
-      </c>
-      <c r="N30" s="15">
-        <v>0.36484899999999998</v>
-      </c>
-      <c r="O30" s="51">
-        <v>-5.919E-2</v>
-      </c>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B31" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="57">
-        <v>0.59844600000000003</v>
-      </c>
-      <c r="D31" s="15">
-        <v>0.50735600000000003</v>
-      </c>
-      <c r="E31" s="15">
-        <v>0.52513299999999996</v>
-      </c>
-      <c r="F31" s="15">
-        <v>0.61929000000000001</v>
-      </c>
-      <c r="G31" s="15">
-        <v>1</v>
-      </c>
-      <c r="H31" s="15">
-        <v>0.48537599999999997</v>
-      </c>
-      <c r="I31" s="15">
-        <v>7.9337000000000005E-2</v>
-      </c>
-      <c r="J31" s="15">
-        <v>8.2087999999999994E-2</v>
-      </c>
-      <c r="K31" s="15">
-        <v>-2.811E-2</v>
-      </c>
-      <c r="L31" s="15">
-        <v>-1.5520000000000001E-2</v>
-      </c>
-      <c r="M31" s="15">
-        <v>0.59831999999999996</v>
-      </c>
-      <c r="N31" s="15">
-        <v>0.32464100000000001</v>
-      </c>
-      <c r="O31" s="51">
-        <v>-2.681E-2</v>
-      </c>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B32" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="57">
-        <v>0.56000799999999995</v>
-      </c>
-      <c r="D32" s="15">
-        <v>0.60417299999999996</v>
-      </c>
-      <c r="E32" s="15">
-        <v>0.60655199999999998</v>
-      </c>
-      <c r="F32" s="15">
-        <v>0.62721300000000002</v>
-      </c>
-      <c r="G32" s="15">
-        <v>0.48537599999999997</v>
-      </c>
-      <c r="H32" s="15">
-        <v>1</v>
-      </c>
-      <c r="I32" s="15">
-        <v>0.20561199999999999</v>
-      </c>
-      <c r="J32" s="15">
-        <v>6.5917000000000003E-2</v>
-      </c>
-      <c r="K32" s="15">
-        <v>0.230711</v>
-      </c>
-      <c r="L32" s="15">
-        <v>0.23639499999999999</v>
-      </c>
-      <c r="M32" s="15">
-        <v>0.47003600000000001</v>
-      </c>
-      <c r="N32" s="15">
-        <v>0.41226800000000002</v>
-      </c>
-      <c r="O32" s="51">
-        <v>2.356E-3</v>
-      </c>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B33" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="57">
-        <v>-0.16219</v>
-      </c>
-      <c r="D33" s="15">
-        <v>0.46720600000000001</v>
-      </c>
-      <c r="E33" s="15">
-        <v>0.34372999999999998</v>
-      </c>
-      <c r="F33" s="15">
-        <v>0.299626</v>
-      </c>
-      <c r="G33" s="15">
-        <v>7.9337000000000005E-2</v>
-      </c>
-      <c r="H33" s="15">
-        <v>0.20561199999999999</v>
-      </c>
-      <c r="I33" s="15">
-        <v>1</v>
-      </c>
-      <c r="J33" s="15">
-        <v>0.18801399999999999</v>
-      </c>
-      <c r="K33" s="15">
-        <v>0.15270600000000001</v>
-      </c>
-      <c r="L33" s="15">
-        <v>-0.11461</v>
-      </c>
-      <c r="M33" s="15">
-        <v>-0.30198000000000003</v>
-      </c>
-      <c r="N33" s="15">
-        <v>0.64590999999999998</v>
-      </c>
-      <c r="O33" s="51">
-        <v>5.0603000000000002E-2</v>
-      </c>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B34" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="57">
-        <v>0.123853</v>
-      </c>
-      <c r="D34" s="15">
-        <v>0.100355</v>
-      </c>
-      <c r="E34" s="15">
-        <v>0.16427700000000001</v>
-      </c>
-      <c r="F34" s="15">
-        <v>0.13957900000000001</v>
-      </c>
-      <c r="G34" s="15">
-        <v>8.2087999999999994E-2</v>
-      </c>
-      <c r="H34" s="15">
-        <v>6.5917000000000003E-2</v>
-      </c>
-      <c r="I34" s="15">
-        <v>0.18801399999999999</v>
-      </c>
-      <c r="J34" s="15">
-        <v>1</v>
-      </c>
-      <c r="K34" s="15">
-        <v>-0.12670999999999999</v>
-      </c>
-      <c r="L34" s="15">
-        <v>-0.19519</v>
-      </c>
-      <c r="M34" s="15">
-        <v>8.7570999999999996E-2</v>
-      </c>
-      <c r="N34" s="15">
-        <v>3.8482000000000002E-2</v>
-      </c>
-      <c r="O34" s="51">
-        <v>1.1105E-2</v>
-      </c>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B35" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="57">
-        <v>5.8830000000000002E-3</v>
-      </c>
-      <c r="D35" s="15">
-        <v>0.10730000000000001</v>
-      </c>
-      <c r="E35" s="15">
-        <v>4.7697000000000003E-2</v>
-      </c>
-      <c r="F35" s="15">
-        <v>6.8987999999999994E-2</v>
-      </c>
-      <c r="G35" s="15">
-        <v>-2.811E-2</v>
-      </c>
-      <c r="H35" s="15">
-        <v>0.230711</v>
-      </c>
-      <c r="I35" s="15">
-        <v>0.15270600000000001</v>
-      </c>
-      <c r="J35" s="15">
-        <v>-0.12670999999999999</v>
-      </c>
-      <c r="K35" s="15">
-        <v>1</v>
-      </c>
-      <c r="L35" s="15">
-        <v>0.70652499999999996</v>
-      </c>
-      <c r="M35" s="15">
-        <v>7.9466999999999996E-2</v>
-      </c>
-      <c r="N35" s="15">
-        <v>0.44623800000000002</v>
-      </c>
-      <c r="O35" s="51">
-        <v>0.23028799999999999</v>
-      </c>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B36" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="57">
-        <v>0.13919599999999999</v>
-      </c>
-      <c r="D36" s="15">
-        <v>-5.1000000000000004E-4</v>
-      </c>
-      <c r="E36" s="15">
-        <v>-5.806E-2</v>
-      </c>
-      <c r="F36" s="15">
-        <v>1.7149999999999999E-3</v>
-      </c>
-      <c r="G36" s="15">
-        <v>-0.1552</v>
-      </c>
-      <c r="H36" s="15">
-        <v>0.23639499999999999</v>
-      </c>
-      <c r="I36" s="15">
-        <v>-0.11461</v>
-      </c>
-      <c r="J36" s="15">
-        <v>-0.19519</v>
-      </c>
-      <c r="K36" s="15">
-        <v>0.70652499999999996</v>
-      </c>
-      <c r="L36" s="15">
-        <v>1</v>
-      </c>
-      <c r="M36" s="15">
-        <v>0.28224500000000002</v>
-      </c>
-      <c r="N36" s="15">
-        <v>0.24412400000000001</v>
-      </c>
-      <c r="O36" s="51">
-        <v>0.22785</v>
-      </c>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B37" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="57">
-        <v>0.67280200000000001</v>
-      </c>
-      <c r="D37" s="15">
-        <v>0.28680699999999998</v>
-      </c>
-      <c r="E37" s="15">
-        <v>0.37597599999999998</v>
-      </c>
-      <c r="F37" s="15">
-        <v>0.42957000000000001</v>
-      </c>
-      <c r="G37" s="15">
-        <v>0.59831999999999996</v>
-      </c>
-      <c r="H37" s="15">
-        <v>0.47003600000000001</v>
-      </c>
-      <c r="I37" s="15">
-        <v>-0.30198000000000003</v>
-      </c>
-      <c r="J37" s="15">
-        <v>8.7570999999999996E-2</v>
-      </c>
-      <c r="K37" s="15">
-        <v>7.9466999999999996E-2</v>
-      </c>
-      <c r="L37" s="15">
-        <v>0.28224500000000002</v>
-      </c>
-      <c r="M37" s="15">
-        <v>1</v>
-      </c>
-      <c r="N37" s="15">
-        <v>0.17721300000000001</v>
-      </c>
-      <c r="O37" s="51">
-        <v>2.4840000000000001E-2</v>
-      </c>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B38" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="57">
-        <v>7.2523000000000004E-2</v>
-      </c>
-      <c r="D38" s="15">
-        <v>0.48788999999999999</v>
-      </c>
-      <c r="E38" s="15">
-        <v>0.34953800000000002</v>
-      </c>
-      <c r="F38" s="15">
-        <v>0.36484899999999998</v>
-      </c>
-      <c r="G38" s="15">
-        <v>0.32464100000000001</v>
-      </c>
-      <c r="H38" s="15">
-        <v>0.41226800000000002</v>
-      </c>
-      <c r="I38" s="15">
-        <v>0.64590999999999998</v>
-      </c>
-      <c r="J38" s="15">
-        <v>3.8482000000000002E-2</v>
-      </c>
-      <c r="K38" s="15">
-        <v>0.44623800000000002</v>
-      </c>
-      <c r="L38" s="15">
-        <v>0.24412400000000001</v>
-      </c>
-      <c r="M38" s="15">
-        <v>0.17721300000000001</v>
-      </c>
-      <c r="N38" s="15">
-        <v>1</v>
-      </c>
-      <c r="O38" s="51">
-        <v>0.115046</v>
-      </c>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B39" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="58">
-        <v>-3.9289999999999999E-2</v>
-      </c>
-      <c r="D39" s="52">
-        <v>-6.6549999999999998E-2</v>
-      </c>
-      <c r="E39" s="52">
-        <v>-3.6069999999999998E-2</v>
-      </c>
-      <c r="F39" s="52">
-        <v>-5.919E-2</v>
-      </c>
-      <c r="G39" s="52">
-        <v>-2.681E-2</v>
-      </c>
-      <c r="H39" s="52">
-        <v>2.356E-3</v>
-      </c>
-      <c r="I39" s="52">
-        <v>5.0603000000000002E-2</v>
-      </c>
-      <c r="J39" s="52">
-        <v>1.1105E-2</v>
-      </c>
-      <c r="K39" s="52">
-        <v>0.23028799999999999</v>
-      </c>
-      <c r="L39" s="52">
-        <v>0.22785</v>
-      </c>
-      <c r="M39" s="52">
-        <v>2.4840000000000001E-2</v>
-      </c>
-      <c r="N39" s="52">
-        <v>0.115046</v>
-      </c>
-      <c r="O39" s="53">
-        <v>1</v>
-      </c>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
-    </row>
-    <row r="40" spans="2:17" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="17" t="s">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B40" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="18"/>
-    </row>
-    <row r="41" spans="2:17" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="17" t="s">
+      <c r="C40" s="6"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B41" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="18"/>
-    </row>
-    <row r="42" spans="2:17" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="17" t="s">
+      <c r="C41" s="6"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B42" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="18"/>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C42" s="6"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
     <mergeCell ref="N25:N26"/>
     <mergeCell ref="O25:O26"/>
     <mergeCell ref="P25:P26"/>
@@ -6245,14 +6215,16 @@
     <mergeCell ref="K25:K26"/>
     <mergeCell ref="L25:L26"/>
     <mergeCell ref="M25:M26"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="M4:O4"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
     <mergeCell ref="C9:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6261,176 +6233,158 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D5B121-ADEE-4261-BDC5-D25F0E0D0898}">
-  <dimension ref="B2:I17"/>
+  <dimension ref="B2:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="5" customWidth="1"/>
-    <col min="6" max="8" width="15.140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="5"/>
+    <col min="1" max="1" width="4.453125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="27.1796875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20.1796875" style="5" customWidth="1"/>
+    <col min="6" max="8" width="15.1796875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" style="5"/>
     <col min="10" max="11" width="14" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="5"/>
+    <col min="12" max="16384" width="9.1796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="59" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="59" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="32"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="52"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="82">
+      <c r="C3" s="56">
         <f ca="1">TODAY()</f>
-        <v>45958</v>
-      </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="59" t="s">
+        <v>46038</v>
+      </c>
+      <c r="D3" s="32"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="83">
+      <c r="C4" s="57">
         <v>100000</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="59" t="s">
+      <c r="D4" s="32"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="80">
+      <c r="C5" s="54">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="59" t="s">
+      <c r="D5" s="47"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="81">
+      <c r="C6" s="55">
         <v>0.01</v>
       </c>
-      <c r="D6" s="54"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="73" t="s">
+      <c r="D6" s="32"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="27"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="27"/>
-      <c r="C9" s="46" t="s">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="9"/>
+      <c r="C9" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="28" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="59" t="s">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="88">
+      <c r="C10" s="62">
         <v>1000000</v>
       </c>
-      <c r="D10" s="87">
+      <c r="D10" s="61">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="59" t="s">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="89">
+      <c r="C11" s="63">
         <v>1000000</v>
       </c>
-      <c r="D11" s="84">
+      <c r="D11" s="58">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="59" t="s">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="71"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="59" t="s">
+      <c r="C12" s="49"/>
+      <c r="D12" s="46"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="90"/>
-      <c r="D13" s="71"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="59" t="s">
+      <c r="C13" s="64"/>
+      <c r="D13" s="46"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="86"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="59" t="s">
+      <c r="C14" s="65"/>
+      <c r="D14" s="60"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="93"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="75" t="s">
+      <c r="C15" s="66"/>
+      <c r="D15" s="67"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="94">
+      <c r="C16" s="68">
         <f>SUM(C10:C15)</f>
         <v>2000000</v>
       </c>
-      <c r="D16" s="95">
+      <c r="D16" s="69">
         <f>SUM(D10:D15)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="76"/>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6445,7 +6399,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6460,355 +6414,351 @@
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" style="5" customWidth="1"/>
     <col min="2" max="2" width="26" style="5" customWidth="1"/>
     <col min="3" max="3" width="13" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="7.453125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" style="5" customWidth="1"/>
     <col min="10" max="10" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="5"/>
+    <col min="11" max="11" width="12.81640625" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="27" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="55"/>
-      <c r="C3" s="98"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="32"/>
+      <c r="C3" s="72"/>
       <c r="D3" s="4"/>
-      <c r="H3" s="103" t="s">
+      <c r="H3" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="104"/>
-      <c r="J3" s="105"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="55"/>
-      <c r="C4" s="99"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="115"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="32"/>
+      <c r="C4" s="73"/>
       <c r="D4" s="4"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="59" t="s">
+      <c r="H4" s="24"/>
+      <c r="I4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="36" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="H5" s="63">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H5" s="39">
         <v>1</v>
       </c>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="F6" s="100"/>
-      <c r="H6" s="63">
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F6" s="74"/>
+      <c r="H6" s="39">
         <v>2</v>
       </c>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F7" s="4"/>
-      <c r="H7" s="63">
+      <c r="H7" s="39">
         <v>3</v>
       </c>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F8" s="101"/>
-      <c r="H8" s="63">
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F8" s="75"/>
+      <c r="H8" s="39">
         <v>4</v>
       </c>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F9" s="101"/>
-      <c r="H9" s="63">
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F9" s="75"/>
+      <c r="H9" s="39">
         <v>5</v>
       </c>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F10" s="101"/>
-      <c r="H10" s="63">
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F10" s="75"/>
+      <c r="H10" s="39">
         <v>6</v>
       </c>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F11" s="101"/>
-      <c r="H11" s="63">
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F11" s="75"/>
+      <c r="H11" s="39">
         <v>7</v>
       </c>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F12" s="101"/>
-      <c r="H12" s="63">
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F12" s="75"/>
+      <c r="H12" s="39">
         <v>8</v>
       </c>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F13" s="101"/>
-      <c r="H13" s="63">
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F13" s="75"/>
+      <c r="H13" s="39">
         <v>9</v>
       </c>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F14" s="101"/>
-      <c r="H14" s="96">
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F14" s="75"/>
+      <c r="H14" s="70">
         <v>10</v>
       </c>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F15" s="101"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F16" s="101"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="F17" s="101"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C19" s="54"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="59"/>
-      <c r="C20" s="59" t="s">
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F15" s="75"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="F16" s="75"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F17" s="75"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C19" s="32"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="36"/>
+      <c r="C20" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="59" t="s">
+      <c r="E20" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="59" t="s">
+      <c r="F20" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="44" t="s">
+      <c r="H20" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="I20" s="106"/>
-      <c r="J20" s="106"/>
-      <c r="K20" s="45"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="59" t="s">
+      <c r="I20" s="116"/>
+      <c r="J20" s="116"/>
+      <c r="K20" s="112"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="79"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="53"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="103" t="s">
+      <c r="I21" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="J21" s="104"/>
-      <c r="K21" s="105"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="59" t="s">
+      <c r="J21" s="114"/>
+      <c r="K21" s="115"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="79"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="53"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="46">
+      <c r="I22" s="28">
         <v>95</v>
       </c>
-      <c r="J22" s="46">
+      <c r="J22" s="28">
         <v>50</v>
       </c>
-      <c r="K22" s="46">
+      <c r="K22" s="28">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="59" t="s">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="79"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="53"/>
       <c r="H23" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="59" t="s">
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="79"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="53"/>
       <c r="H24" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="59" t="s">
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="79"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="53"/>
       <c r="H25" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="59" t="s">
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="79"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="53"/>
       <c r="H26" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="59" t="s">
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="79"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="53"/>
       <c r="H27" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="59" t="s">
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="79"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="59" t="s">
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="53"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="79"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="59" t="s">
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="53"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B30" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="79"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="59" t="s">
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="53"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="79"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="59" t="s">
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="53"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B32" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="79"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="59" t="s">
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="53"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="79"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="59" t="s">
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="53"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="59">
+      <c r="C34" s="36">
         <f>SUM(C21:C33)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="59">
+      <c r="D34" s="36">
         <f t="shared" ref="D34:F34" si="0">SUM(D21:D33)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="59">
+      <c r="E34" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F34" s="59">
+      <c r="F34" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G34" s="54"/>
+      <c r="G34" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6833,75 +6783,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C622708-45A8-4944-B3BF-DDAA2EE343B1}">
   <dimension ref="B2:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="5" customWidth="1"/>
-    <col min="2" max="3" width="20.85546875" style="5" customWidth="1"/>
-    <col min="4" max="8" width="9.140625" style="5"/>
-    <col min="9" max="9" width="18.7109375" style="5" customWidth="1"/>
-    <col min="10" max="11" width="7.85546875" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="4.453125" style="5" customWidth="1"/>
+    <col min="2" max="3" width="20.81640625" style="5" customWidth="1"/>
+    <col min="4" max="8" width="9.1796875" style="5"/>
+    <col min="9" max="9" width="18.7265625" style="5" customWidth="1"/>
+    <col min="10" max="11" width="7.81640625" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B2" s="59" t="s">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B2" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="107"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="77"/>
       <c r="F2" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B3" s="59" t="s">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B3" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="107"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B4" s="59" t="s">
+      <c r="D3" s="77"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="111"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="59" t="s">
+      <c r="C4" s="81"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="27" t="s">
+      <c r="C5" s="81"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="L5" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="27" t="s">
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F17" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="109"/>
-      <c r="L23" s="109"/>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B23" s="79"/>
+      <c r="L23" s="79"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -6922,802 +6871,802 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" style="5" customWidth="1"/>
     <col min="4" max="4" width="4" style="5" customWidth="1"/>
-    <col min="5" max="34" width="11.85546875" style="5" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="5"/>
+    <col min="5" max="34" width="11.81640625" style="5" customWidth="1"/>
+    <col min="35" max="16384" width="9.1796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B2" s="59" t="s">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B2" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="122" t="s">
+      <c r="C2" s="92" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B3" s="108" t="s">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B3" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="123" t="s">
+      <c r="C3" s="93" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B4" s="108" t="s">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B4" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="123" t="s">
+      <c r="C4" s="93" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:34" s="124" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E5" s="125">
+    <row r="5" spans="1:34" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="94">
         <v>46022</v>
       </c>
-      <c r="F5" s="125">
+      <c r="F5" s="94">
         <v>46387</v>
       </c>
-      <c r="G5" s="125">
+      <c r="G5" s="94">
         <v>46752</v>
       </c>
-      <c r="H5" s="125">
+      <c r="H5" s="94">
         <v>47118</v>
       </c>
-      <c r="I5" s="125">
+      <c r="I5" s="94">
         <v>47483</v>
       </c>
-      <c r="J5" s="125">
+      <c r="J5" s="94">
         <v>47848</v>
       </c>
-      <c r="K5" s="125">
+      <c r="K5" s="94">
         <v>48213</v>
       </c>
-      <c r="L5" s="125">
+      <c r="L5" s="94">
         <v>48579</v>
       </c>
-      <c r="M5" s="125">
+      <c r="M5" s="94">
         <v>48944</v>
       </c>
-      <c r="N5" s="125">
+      <c r="N5" s="94">
         <v>49309</v>
       </c>
-      <c r="O5" s="125">
+      <c r="O5" s="94">
         <v>49674</v>
       </c>
-      <c r="P5" s="125">
+      <c r="P5" s="94">
         <v>50040</v>
       </c>
-      <c r="Q5" s="125">
+      <c r="Q5" s="94">
         <v>50405</v>
       </c>
-      <c r="R5" s="125">
+      <c r="R5" s="94">
         <v>50770</v>
       </c>
-      <c r="S5" s="125">
+      <c r="S5" s="94">
         <v>51135</v>
       </c>
-      <c r="T5" s="125">
+      <c r="T5" s="94">
         <v>51501</v>
       </c>
-      <c r="U5" s="125">
+      <c r="U5" s="94">
         <v>51866</v>
       </c>
-      <c r="V5" s="125">
+      <c r="V5" s="94">
         <v>52231</v>
       </c>
-      <c r="W5" s="125">
+      <c r="W5" s="94">
         <v>52596</v>
       </c>
-      <c r="X5" s="125">
+      <c r="X5" s="94">
         <v>52962</v>
       </c>
-      <c r="Y5" s="125">
+      <c r="Y5" s="94">
         <v>53327</v>
       </c>
-      <c r="Z5" s="125">
+      <c r="Z5" s="94">
         <v>53692</v>
       </c>
-      <c r="AA5" s="125">
+      <c r="AA5" s="94">
         <v>54057</v>
       </c>
-      <c r="AB5" s="125">
+      <c r="AB5" s="94">
         <v>54423</v>
       </c>
-      <c r="AC5" s="125">
+      <c r="AC5" s="94">
         <v>54788</v>
       </c>
-      <c r="AD5" s="125">
+      <c r="AD5" s="94">
         <v>55153</v>
       </c>
-      <c r="AE5" s="125">
+      <c r="AE5" s="94">
         <v>55518</v>
       </c>
-      <c r="AF5" s="125">
+      <c r="AF5" s="94">
         <v>55884</v>
       </c>
-      <c r="AG5" s="125">
+      <c r="AG5" s="94">
         <v>56249</v>
       </c>
-      <c r="AH5" s="125">
+      <c r="AH5" s="94">
         <v>56614</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="E6" s="112">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="E6" s="82">
         <v>2025</v>
       </c>
-      <c r="F6" s="112">
+      <c r="F6" s="82">
         <v>2026</v>
       </c>
-      <c r="G6" s="112">
+      <c r="G6" s="82">
         <v>2027</v>
       </c>
-      <c r="H6" s="112">
+      <c r="H6" s="82">
         <v>2028</v>
       </c>
-      <c r="I6" s="112">
+      <c r="I6" s="82">
         <v>2029</v>
       </c>
-      <c r="J6" s="112">
+      <c r="J6" s="82">
         <v>2030</v>
       </c>
-      <c r="K6" s="112">
+      <c r="K6" s="82">
         <v>2031</v>
       </c>
-      <c r="L6" s="112">
+      <c r="L6" s="82">
         <v>2032</v>
       </c>
-      <c r="M6" s="112">
+      <c r="M6" s="82">
         <v>2033</v>
       </c>
-      <c r="N6" s="112">
+      <c r="N6" s="82">
         <v>2034</v>
       </c>
-      <c r="O6" s="112">
+      <c r="O6" s="82">
         <v>2035</v>
       </c>
-      <c r="P6" s="112">
+      <c r="P6" s="82">
         <v>2036</v>
       </c>
-      <c r="Q6" s="112">
+      <c r="Q6" s="82">
         <v>2037</v>
       </c>
-      <c r="R6" s="112">
+      <c r="R6" s="82">
         <v>2038</v>
       </c>
-      <c r="S6" s="112">
+      <c r="S6" s="82">
         <v>2039</v>
       </c>
-      <c r="T6" s="112">
+      <c r="T6" s="82">
         <v>2040</v>
       </c>
-      <c r="U6" s="112">
+      <c r="U6" s="82">
         <v>2041</v>
       </c>
-      <c r="V6" s="112">
+      <c r="V6" s="82">
         <v>2042</v>
       </c>
-      <c r="W6" s="112">
+      <c r="W6" s="82">
         <v>2043</v>
       </c>
-      <c r="X6" s="112">
+      <c r="X6" s="82">
         <v>2044</v>
       </c>
-      <c r="Y6" s="112">
+      <c r="Y6" s="82">
         <v>2045</v>
       </c>
-      <c r="Z6" s="112">
+      <c r="Z6" s="82">
         <v>2046</v>
       </c>
-      <c r="AA6" s="112">
+      <c r="AA6" s="82">
         <v>2047</v>
       </c>
-      <c r="AB6" s="112">
+      <c r="AB6" s="82">
         <v>2048</v>
       </c>
-      <c r="AC6" s="112">
+      <c r="AC6" s="82">
         <v>2049</v>
       </c>
-      <c r="AD6" s="112">
+      <c r="AD6" s="82">
         <v>2050</v>
       </c>
-      <c r="AE6" s="112">
+      <c r="AE6" s="82">
         <v>2051</v>
       </c>
-      <c r="AF6" s="112">
+      <c r="AF6" s="82">
         <v>2052</v>
       </c>
-      <c r="AG6" s="112">
+      <c r="AG6" s="82">
         <v>2053</v>
       </c>
-      <c r="AH6" s="112">
+      <c r="AH6" s="82">
         <v>2054</v>
       </c>
     </row>
-    <row r="7" spans="1:34" s="114" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" s="84" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="95" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B9" s="112" t="s">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B9" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="115">
+      <c r="C9" s="85">
         <v>46022</v>
       </c>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="116"/>
-      <c r="V9" s="116"/>
-      <c r="W9" s="116"/>
-      <c r="X9" s="116"/>
-      <c r="Y9" s="116"/>
-      <c r="Z9" s="116"/>
-      <c r="AA9" s="116"/>
-      <c r="AB9" s="116"/>
-      <c r="AC9" s="116"/>
-      <c r="AD9" s="116"/>
-      <c r="AE9" s="116"/>
-      <c r="AF9" s="116"/>
-      <c r="AG9" s="116"/>
-      <c r="AH9" s="116"/>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B11" s="112" t="s">
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="86"/>
+      <c r="Q9" s="86"/>
+      <c r="R9" s="86"/>
+      <c r="S9" s="86"/>
+      <c r="T9" s="86"/>
+      <c r="U9" s="86"/>
+      <c r="V9" s="86"/>
+      <c r="W9" s="86"/>
+      <c r="X9" s="86"/>
+      <c r="Y9" s="86"/>
+      <c r="Z9" s="86"/>
+      <c r="AA9" s="86"/>
+      <c r="AB9" s="86"/>
+      <c r="AC9" s="86"/>
+      <c r="AD9" s="86"/>
+      <c r="AE9" s="86"/>
+      <c r="AF9" s="86"/>
+      <c r="AG9" s="86"/>
+      <c r="AH9" s="86"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B11" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="117" t="s">
+      <c r="C11" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="116"/>
-      <c r="M11" s="116"/>
-      <c r="N11" s="116"/>
-      <c r="O11" s="116"/>
-      <c r="P11" s="116"/>
-      <c r="Q11" s="116"/>
-      <c r="R11" s="116"/>
-      <c r="S11" s="116"/>
-      <c r="T11" s="116"/>
-      <c r="U11" s="116"/>
-      <c r="V11" s="116"/>
-      <c r="W11" s="116"/>
-      <c r="X11" s="116"/>
-      <c r="Y11" s="116"/>
-      <c r="Z11" s="116"/>
-      <c r="AA11" s="116"/>
-      <c r="AB11" s="116"/>
-      <c r="AC11" s="116"/>
-      <c r="AD11" s="116"/>
-      <c r="AE11" s="116"/>
-      <c r="AF11" s="116"/>
-      <c r="AG11" s="116"/>
-      <c r="AH11" s="116"/>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B12" s="112"/>
-      <c r="C12" s="117" t="s">
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="86"/>
+      <c r="R11" s="86"/>
+      <c r="S11" s="86"/>
+      <c r="T11" s="86"/>
+      <c r="U11" s="86"/>
+      <c r="V11" s="86"/>
+      <c r="W11" s="86"/>
+      <c r="X11" s="86"/>
+      <c r="Y11" s="86"/>
+      <c r="Z11" s="86"/>
+      <c r="AA11" s="86"/>
+      <c r="AB11" s="86"/>
+      <c r="AC11" s="86"/>
+      <c r="AD11" s="86"/>
+      <c r="AE11" s="86"/>
+      <c r="AF11" s="86"/>
+      <c r="AG11" s="86"/>
+      <c r="AH11" s="86"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B12" s="82"/>
+      <c r="C12" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="116"/>
-      <c r="M12" s="116"/>
-      <c r="N12" s="116"/>
-      <c r="O12" s="116"/>
-      <c r="P12" s="116"/>
-      <c r="Q12" s="116"/>
-      <c r="R12" s="116"/>
-      <c r="S12" s="116"/>
-      <c r="T12" s="116"/>
-      <c r="U12" s="116"/>
-      <c r="V12" s="116"/>
-      <c r="W12" s="116"/>
-      <c r="X12" s="116"/>
-      <c r="Y12" s="116"/>
-      <c r="Z12" s="116"/>
-      <c r="AA12" s="116"/>
-      <c r="AB12" s="116"/>
-      <c r="AC12" s="116"/>
-      <c r="AD12" s="116"/>
-      <c r="AE12" s="116"/>
-      <c r="AF12" s="116"/>
-      <c r="AG12" s="116"/>
-      <c r="AH12" s="116"/>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B14" s="112" t="s">
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="86"/>
+      <c r="Q12" s="86"/>
+      <c r="R12" s="86"/>
+      <c r="S12" s="86"/>
+      <c r="T12" s="86"/>
+      <c r="U12" s="86"/>
+      <c r="V12" s="86"/>
+      <c r="W12" s="86"/>
+      <c r="X12" s="86"/>
+      <c r="Y12" s="86"/>
+      <c r="Z12" s="86"/>
+      <c r="AA12" s="86"/>
+      <c r="AB12" s="86"/>
+      <c r="AC12" s="86"/>
+      <c r="AD12" s="86"/>
+      <c r="AE12" s="86"/>
+      <c r="AF12" s="86"/>
+      <c r="AG12" s="86"/>
+      <c r="AH12" s="86"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B14" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="117" t="s">
+      <c r="C14" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="116"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="116"/>
-      <c r="M14" s="116"/>
-      <c r="N14" s="116"/>
-      <c r="O14" s="116"/>
-      <c r="P14" s="116"/>
-      <c r="Q14" s="116"/>
-      <c r="R14" s="116"/>
-      <c r="S14" s="116"/>
-      <c r="T14" s="116"/>
-      <c r="U14" s="116"/>
-      <c r="V14" s="116"/>
-      <c r="W14" s="116"/>
-      <c r="X14" s="116"/>
-      <c r="Y14" s="116"/>
-      <c r="Z14" s="116"/>
-      <c r="AA14" s="116"/>
-      <c r="AB14" s="116"/>
-      <c r="AC14" s="116"/>
-      <c r="AD14" s="116"/>
-      <c r="AE14" s="116"/>
-      <c r="AF14" s="116"/>
-      <c r="AG14" s="116"/>
-      <c r="AH14" s="116"/>
-    </row>
-    <row r="15" spans="1:34" s="121" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="86"/>
+      <c r="S14" s="86"/>
+      <c r="T14" s="86"/>
+      <c r="U14" s="86"/>
+      <c r="V14" s="86"/>
+      <c r="W14" s="86"/>
+      <c r="X14" s="86"/>
+      <c r="Y14" s="86"/>
+      <c r="Z14" s="86"/>
+      <c r="AA14" s="86"/>
+      <c r="AB14" s="86"/>
+      <c r="AC14" s="86"/>
+      <c r="AD14" s="86"/>
+      <c r="AE14" s="86"/>
+      <c r="AF14" s="86"/>
+      <c r="AG14" s="86"/>
+      <c r="AH14" s="86"/>
+    </row>
+    <row r="15" spans="1:34" s="91" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
-      <c r="B15" s="118"/>
-      <c r="C15" s="119" t="s">
+      <c r="B15" s="88"/>
+      <c r="C15" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="120"/>
-      <c r="O15" s="120"/>
-      <c r="P15" s="120"/>
-      <c r="Q15" s="120"/>
-      <c r="R15" s="120"/>
-      <c r="S15" s="120"/>
-      <c r="T15" s="120"/>
-      <c r="U15" s="120"/>
-      <c r="V15" s="120"/>
-      <c r="W15" s="120"/>
-      <c r="X15" s="120"/>
-      <c r="Y15" s="120"/>
-      <c r="Z15" s="120"/>
-      <c r="AA15" s="120"/>
-      <c r="AB15" s="120"/>
-      <c r="AC15" s="120"/>
-      <c r="AD15" s="120"/>
-      <c r="AE15" s="120"/>
-      <c r="AF15" s="120"/>
-      <c r="AG15" s="120"/>
-      <c r="AH15" s="120"/>
-    </row>
-    <row r="16" spans="1:34" s="114" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="90"/>
+      <c r="Q15" s="90"/>
+      <c r="R15" s="90"/>
+      <c r="S15" s="90"/>
+      <c r="T15" s="90"/>
+      <c r="U15" s="90"/>
+      <c r="V15" s="90"/>
+      <c r="W15" s="90"/>
+      <c r="X15" s="90"/>
+      <c r="Y15" s="90"/>
+      <c r="Z15" s="90"/>
+      <c r="AA15" s="90"/>
+      <c r="AB15" s="90"/>
+      <c r="AC15" s="90"/>
+      <c r="AD15" s="90"/>
+      <c r="AE15" s="90"/>
+      <c r="AF15" s="90"/>
+      <c r="AG15" s="90"/>
+      <c r="AH15" s="90"/>
+    </row>
+    <row r="16" spans="1:34" s="84" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
-      <c r="B16" s="126" t="s">
+      <c r="B16" s="95" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B18" s="112" t="s">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B18" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="115">
+      <c r="C18" s="85">
         <v>46022</v>
       </c>
-      <c r="E18" s="116"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="116"/>
-      <c r="M18" s="116"/>
-      <c r="N18" s="116"/>
-      <c r="O18" s="116"/>
-      <c r="P18" s="116"/>
-      <c r="Q18" s="116"/>
-      <c r="R18" s="116"/>
-      <c r="S18" s="116"/>
-      <c r="T18" s="116"/>
-      <c r="U18" s="116"/>
-      <c r="V18" s="116"/>
-      <c r="W18" s="116"/>
-      <c r="X18" s="116"/>
-      <c r="Y18" s="116"/>
-      <c r="Z18" s="116"/>
-      <c r="AA18" s="116"/>
-      <c r="AB18" s="116"/>
-      <c r="AC18" s="116"/>
-      <c r="AD18" s="116"/>
-      <c r="AE18" s="116"/>
-      <c r="AF18" s="116"/>
-      <c r="AG18" s="116"/>
-      <c r="AH18" s="116"/>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B20" s="112" t="s">
+      <c r="E18" s="86"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="86"/>
+      <c r="P18" s="86"/>
+      <c r="Q18" s="86"/>
+      <c r="R18" s="86"/>
+      <c r="S18" s="86"/>
+      <c r="T18" s="86"/>
+      <c r="U18" s="86"/>
+      <c r="V18" s="86"/>
+      <c r="W18" s="86"/>
+      <c r="X18" s="86"/>
+      <c r="Y18" s="86"/>
+      <c r="Z18" s="86"/>
+      <c r="AA18" s="86"/>
+      <c r="AB18" s="86"/>
+      <c r="AC18" s="86"/>
+      <c r="AD18" s="86"/>
+      <c r="AE18" s="86"/>
+      <c r="AF18" s="86"/>
+      <c r="AG18" s="86"/>
+      <c r="AH18" s="86"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B20" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="117" t="s">
+      <c r="C20" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="116"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="116"/>
-      <c r="M20" s="116"/>
-      <c r="N20" s="116"/>
-      <c r="O20" s="116"/>
-      <c r="P20" s="116"/>
-      <c r="Q20" s="116"/>
-      <c r="R20" s="116"/>
-      <c r="S20" s="116"/>
-      <c r="T20" s="116"/>
-      <c r="U20" s="116"/>
-      <c r="V20" s="116"/>
-      <c r="W20" s="116"/>
-      <c r="X20" s="116"/>
-      <c r="Y20" s="116"/>
-      <c r="Z20" s="116"/>
-      <c r="AA20" s="116"/>
-      <c r="AB20" s="116"/>
-      <c r="AC20" s="116"/>
-      <c r="AD20" s="116"/>
-      <c r="AE20" s="116"/>
-      <c r="AF20" s="116"/>
-      <c r="AG20" s="116"/>
-      <c r="AH20" s="116"/>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B21" s="112"/>
-      <c r="C21" s="117" t="s">
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="86"/>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="86"/>
+      <c r="R20" s="86"/>
+      <c r="S20" s="86"/>
+      <c r="T20" s="86"/>
+      <c r="U20" s="86"/>
+      <c r="V20" s="86"/>
+      <c r="W20" s="86"/>
+      <c r="X20" s="86"/>
+      <c r="Y20" s="86"/>
+      <c r="Z20" s="86"/>
+      <c r="AA20" s="86"/>
+      <c r="AB20" s="86"/>
+      <c r="AC20" s="86"/>
+      <c r="AD20" s="86"/>
+      <c r="AE20" s="86"/>
+      <c r="AF20" s="86"/>
+      <c r="AG20" s="86"/>
+      <c r="AH20" s="86"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B21" s="82"/>
+      <c r="C21" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="116"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="116"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="116"/>
-      <c r="M21" s="116"/>
-      <c r="N21" s="116"/>
-      <c r="O21" s="116"/>
-      <c r="P21" s="116"/>
-      <c r="Q21" s="116"/>
-      <c r="R21" s="116"/>
-      <c r="S21" s="116"/>
-      <c r="T21" s="116"/>
-      <c r="U21" s="116"/>
-      <c r="V21" s="116"/>
-      <c r="W21" s="116"/>
-      <c r="X21" s="116"/>
-      <c r="Y21" s="116"/>
-      <c r="Z21" s="116"/>
-      <c r="AA21" s="116"/>
-      <c r="AB21" s="116"/>
-      <c r="AC21" s="116"/>
-      <c r="AD21" s="116"/>
-      <c r="AE21" s="116"/>
-      <c r="AF21" s="116"/>
-      <c r="AG21" s="116"/>
-      <c r="AH21" s="116"/>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B23" s="112" t="s">
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="86"/>
+      <c r="O21" s="86"/>
+      <c r="P21" s="86"/>
+      <c r="Q21" s="86"/>
+      <c r="R21" s="86"/>
+      <c r="S21" s="86"/>
+      <c r="T21" s="86"/>
+      <c r="U21" s="86"/>
+      <c r="V21" s="86"/>
+      <c r="W21" s="86"/>
+      <c r="X21" s="86"/>
+      <c r="Y21" s="86"/>
+      <c r="Z21" s="86"/>
+      <c r="AA21" s="86"/>
+      <c r="AB21" s="86"/>
+      <c r="AC21" s="86"/>
+      <c r="AD21" s="86"/>
+      <c r="AE21" s="86"/>
+      <c r="AF21" s="86"/>
+      <c r="AG21" s="86"/>
+      <c r="AH21" s="86"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B23" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="117" t="s">
+      <c r="C23" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="116"/>
-      <c r="L23" s="116"/>
-      <c r="M23" s="116"/>
-      <c r="N23" s="116"/>
-      <c r="O23" s="116"/>
-      <c r="P23" s="116"/>
-      <c r="Q23" s="116"/>
-      <c r="R23" s="116"/>
-      <c r="S23" s="116"/>
-      <c r="T23" s="116"/>
-      <c r="U23" s="116"/>
-      <c r="V23" s="116"/>
-      <c r="W23" s="116"/>
-      <c r="X23" s="116"/>
-      <c r="Y23" s="116"/>
-      <c r="Z23" s="116"/>
-      <c r="AA23" s="116"/>
-      <c r="AB23" s="116"/>
-      <c r="AC23" s="116"/>
-      <c r="AD23" s="116"/>
-      <c r="AE23" s="116"/>
-      <c r="AF23" s="116"/>
-      <c r="AG23" s="116"/>
-      <c r="AH23" s="116"/>
-    </row>
-    <row r="24" spans="1:34" s="121" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="86"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="86"/>
+      <c r="T23" s="86"/>
+      <c r="U23" s="86"/>
+      <c r="V23" s="86"/>
+      <c r="W23" s="86"/>
+      <c r="X23" s="86"/>
+      <c r="Y23" s="86"/>
+      <c r="Z23" s="86"/>
+      <c r="AA23" s="86"/>
+      <c r="AB23" s="86"/>
+      <c r="AC23" s="86"/>
+      <c r="AD23" s="86"/>
+      <c r="AE23" s="86"/>
+      <c r="AF23" s="86"/>
+      <c r="AG23" s="86"/>
+      <c r="AH23" s="86"/>
+    </row>
+    <row r="24" spans="1:34" s="91" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
-      <c r="B24" s="118"/>
-      <c r="C24" s="119" t="s">
+      <c r="B24" s="88"/>
+      <c r="C24" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="120"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="120"/>
-      <c r="I24" s="120"/>
-      <c r="J24" s="120"/>
-      <c r="K24" s="120"/>
-      <c r="L24" s="120"/>
-      <c r="M24" s="120"/>
-      <c r="N24" s="120"/>
-      <c r="O24" s="120"/>
-      <c r="P24" s="120"/>
-      <c r="Q24" s="120"/>
-      <c r="R24" s="120"/>
-      <c r="S24" s="120"/>
-      <c r="T24" s="120"/>
-      <c r="U24" s="120"/>
-      <c r="V24" s="120"/>
-      <c r="W24" s="120"/>
-      <c r="X24" s="120"/>
-      <c r="Y24" s="120"/>
-      <c r="Z24" s="120"/>
-      <c r="AA24" s="120"/>
-      <c r="AB24" s="120"/>
-      <c r="AC24" s="120"/>
-      <c r="AD24" s="120"/>
-      <c r="AE24" s="120"/>
-      <c r="AF24" s="120"/>
-      <c r="AG24" s="120"/>
-      <c r="AH24" s="120"/>
-    </row>
-    <row r="25" spans="1:34" s="114" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="90"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="90"/>
+      <c r="Q24" s="90"/>
+      <c r="R24" s="90"/>
+      <c r="S24" s="90"/>
+      <c r="T24" s="90"/>
+      <c r="U24" s="90"/>
+      <c r="V24" s="90"/>
+      <c r="W24" s="90"/>
+      <c r="X24" s="90"/>
+      <c r="Y24" s="90"/>
+      <c r="Z24" s="90"/>
+      <c r="AA24" s="90"/>
+      <c r="AB24" s="90"/>
+      <c r="AC24" s="90"/>
+      <c r="AD24" s="90"/>
+      <c r="AE24" s="90"/>
+      <c r="AF24" s="90"/>
+      <c r="AG24" s="90"/>
+      <c r="AH24" s="90"/>
+    </row>
+    <row r="25" spans="1:34" s="84" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
-      <c r="B25" s="113" t="s">
+      <c r="B25" s="83" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B27" s="112" t="s">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B27" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="115">
+      <c r="C27" s="85">
         <v>46022</v>
       </c>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="116"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="116"/>
-      <c r="K27" s="116"/>
-      <c r="L27" s="116"/>
-      <c r="M27" s="116"/>
-      <c r="N27" s="116"/>
-      <c r="O27" s="116"/>
-      <c r="P27" s="116"/>
-      <c r="Q27" s="116"/>
-      <c r="R27" s="116"/>
-      <c r="S27" s="116"/>
-      <c r="T27" s="116"/>
-      <c r="U27" s="116"/>
-      <c r="V27" s="116"/>
-      <c r="W27" s="116"/>
-      <c r="X27" s="116"/>
-      <c r="Y27" s="116"/>
-      <c r="Z27" s="116"/>
-      <c r="AA27" s="116"/>
-      <c r="AB27" s="116"/>
-      <c r="AC27" s="116"/>
-      <c r="AD27" s="116"/>
-      <c r="AE27" s="116"/>
-      <c r="AF27" s="116"/>
-      <c r="AG27" s="116"/>
-      <c r="AH27" s="116"/>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B29" s="112" t="s">
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="86"/>
+      <c r="Q27" s="86"/>
+      <c r="R27" s="86"/>
+      <c r="S27" s="86"/>
+      <c r="T27" s="86"/>
+      <c r="U27" s="86"/>
+      <c r="V27" s="86"/>
+      <c r="W27" s="86"/>
+      <c r="X27" s="86"/>
+      <c r="Y27" s="86"/>
+      <c r="Z27" s="86"/>
+      <c r="AA27" s="86"/>
+      <c r="AB27" s="86"/>
+      <c r="AC27" s="86"/>
+      <c r="AD27" s="86"/>
+      <c r="AE27" s="86"/>
+      <c r="AF27" s="86"/>
+      <c r="AG27" s="86"/>
+      <c r="AH27" s="86"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B29" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="117" t="s">
+      <c r="C29" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="116"/>
-      <c r="F29" s="116"/>
-      <c r="G29" s="116"/>
-      <c r="H29" s="116"/>
-      <c r="I29" s="116"/>
-      <c r="J29" s="116"/>
-      <c r="K29" s="116"/>
-      <c r="L29" s="116"/>
-      <c r="M29" s="116"/>
-      <c r="N29" s="116"/>
-      <c r="O29" s="116"/>
-      <c r="P29" s="116"/>
-      <c r="Q29" s="116"/>
-      <c r="R29" s="116"/>
-      <c r="S29" s="116"/>
-      <c r="T29" s="116"/>
-      <c r="U29" s="116"/>
-      <c r="V29" s="116"/>
-      <c r="W29" s="116"/>
-      <c r="X29" s="116"/>
-      <c r="Y29" s="116"/>
-      <c r="Z29" s="116"/>
-      <c r="AA29" s="116"/>
-      <c r="AB29" s="116"/>
-      <c r="AC29" s="116"/>
-      <c r="AD29" s="116"/>
-      <c r="AE29" s="116"/>
-      <c r="AF29" s="116"/>
-      <c r="AG29" s="116"/>
-      <c r="AH29" s="116"/>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B30" s="112"/>
-      <c r="C30" s="117" t="s">
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="86"/>
+      <c r="O29" s="86"/>
+      <c r="P29" s="86"/>
+      <c r="Q29" s="86"/>
+      <c r="R29" s="86"/>
+      <c r="S29" s="86"/>
+      <c r="T29" s="86"/>
+      <c r="U29" s="86"/>
+      <c r="V29" s="86"/>
+      <c r="W29" s="86"/>
+      <c r="X29" s="86"/>
+      <c r="Y29" s="86"/>
+      <c r="Z29" s="86"/>
+      <c r="AA29" s="86"/>
+      <c r="AB29" s="86"/>
+      <c r="AC29" s="86"/>
+      <c r="AD29" s="86"/>
+      <c r="AE29" s="86"/>
+      <c r="AF29" s="86"/>
+      <c r="AG29" s="86"/>
+      <c r="AH29" s="86"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B30" s="82"/>
+      <c r="C30" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="116"/>
-      <c r="F30" s="116"/>
-      <c r="G30" s="116"/>
-      <c r="H30" s="116"/>
-      <c r="I30" s="116"/>
-      <c r="J30" s="116"/>
-      <c r="K30" s="116"/>
-      <c r="L30" s="116"/>
-      <c r="M30" s="116"/>
-      <c r="N30" s="116"/>
-      <c r="O30" s="116"/>
-      <c r="P30" s="116"/>
-      <c r="Q30" s="116"/>
-      <c r="R30" s="116"/>
-      <c r="S30" s="116"/>
-      <c r="T30" s="116"/>
-      <c r="U30" s="116"/>
-      <c r="V30" s="116"/>
-      <c r="W30" s="116"/>
-      <c r="X30" s="116"/>
-      <c r="Y30" s="116"/>
-      <c r="Z30" s="116"/>
-      <c r="AA30" s="116"/>
-      <c r="AB30" s="116"/>
-      <c r="AC30" s="116"/>
-      <c r="AD30" s="116"/>
-      <c r="AE30" s="116"/>
-      <c r="AF30" s="116"/>
-      <c r="AG30" s="116"/>
-      <c r="AH30" s="116"/>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="B32" s="112" t="s">
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="86"/>
+      <c r="N30" s="86"/>
+      <c r="O30" s="86"/>
+      <c r="P30" s="86"/>
+      <c r="Q30" s="86"/>
+      <c r="R30" s="86"/>
+      <c r="S30" s="86"/>
+      <c r="T30" s="86"/>
+      <c r="U30" s="86"/>
+      <c r="V30" s="86"/>
+      <c r="W30" s="86"/>
+      <c r="X30" s="86"/>
+      <c r="Y30" s="86"/>
+      <c r="Z30" s="86"/>
+      <c r="AA30" s="86"/>
+      <c r="AB30" s="86"/>
+      <c r="AC30" s="86"/>
+      <c r="AD30" s="86"/>
+      <c r="AE30" s="86"/>
+      <c r="AF30" s="86"/>
+      <c r="AG30" s="86"/>
+      <c r="AH30" s="86"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="B32" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="117" t="s">
+      <c r="C32" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="116"/>
-      <c r="F32" s="116"/>
-      <c r="G32" s="116"/>
-      <c r="H32" s="116"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="116"/>
-      <c r="K32" s="116"/>
-      <c r="L32" s="116"/>
-      <c r="M32" s="116"/>
-      <c r="N32" s="116"/>
-      <c r="O32" s="116"/>
-      <c r="P32" s="116"/>
-      <c r="Q32" s="116"/>
-      <c r="R32" s="116"/>
-      <c r="S32" s="116"/>
-      <c r="T32" s="116"/>
-      <c r="U32" s="116"/>
-      <c r="V32" s="116"/>
-      <c r="W32" s="116"/>
-      <c r="X32" s="116"/>
-      <c r="Y32" s="116"/>
-      <c r="Z32" s="116"/>
-      <c r="AA32" s="116"/>
-      <c r="AB32" s="116"/>
-      <c r="AC32" s="116"/>
-      <c r="AD32" s="116"/>
-      <c r="AE32" s="116"/>
-      <c r="AF32" s="116"/>
-      <c r="AG32" s="116"/>
-      <c r="AH32" s="116"/>
-    </row>
-    <row r="33" spans="1:34" s="121" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="86"/>
+      <c r="O32" s="86"/>
+      <c r="P32" s="86"/>
+      <c r="Q32" s="86"/>
+      <c r="R32" s="86"/>
+      <c r="S32" s="86"/>
+      <c r="T32" s="86"/>
+      <c r="U32" s="86"/>
+      <c r="V32" s="86"/>
+      <c r="W32" s="86"/>
+      <c r="X32" s="86"/>
+      <c r="Y32" s="86"/>
+      <c r="Z32" s="86"/>
+      <c r="AA32" s="86"/>
+      <c r="AB32" s="86"/>
+      <c r="AC32" s="86"/>
+      <c r="AD32" s="86"/>
+      <c r="AE32" s="86"/>
+      <c r="AF32" s="86"/>
+      <c r="AG32" s="86"/>
+      <c r="AH32" s="86"/>
+    </row>
+    <row r="33" spans="1:34" s="91" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="118"/>
-      <c r="C33" s="119" t="s">
+      <c r="B33" s="88"/>
+      <c r="C33" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="120"/>
-      <c r="F33" s="120"/>
-      <c r="G33" s="120"/>
-      <c r="H33" s="120"/>
-      <c r="I33" s="120"/>
-      <c r="J33" s="120"/>
-      <c r="K33" s="120"/>
-      <c r="L33" s="120"/>
-      <c r="M33" s="120"/>
-      <c r="N33" s="120"/>
-      <c r="O33" s="120"/>
-      <c r="P33" s="120"/>
-      <c r="Q33" s="120"/>
-      <c r="R33" s="120"/>
-      <c r="S33" s="120"/>
-      <c r="T33" s="120"/>
-      <c r="U33" s="120"/>
-      <c r="V33" s="120"/>
-      <c r="W33" s="120"/>
-      <c r="X33" s="120"/>
-      <c r="Y33" s="120"/>
-      <c r="Z33" s="120"/>
-      <c r="AA33" s="120"/>
-      <c r="AB33" s="120"/>
-      <c r="AC33" s="120"/>
-      <c r="AD33" s="120"/>
-      <c r="AE33" s="120"/>
-      <c r="AF33" s="120"/>
-      <c r="AG33" s="120"/>
-      <c r="AH33" s="120"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="90"/>
+      <c r="K33" s="90"/>
+      <c r="L33" s="90"/>
+      <c r="M33" s="90"/>
+      <c r="N33" s="90"/>
+      <c r="O33" s="90"/>
+      <c r="P33" s="90"/>
+      <c r="Q33" s="90"/>
+      <c r="R33" s="90"/>
+      <c r="S33" s="90"/>
+      <c r="T33" s="90"/>
+      <c r="U33" s="90"/>
+      <c r="V33" s="90"/>
+      <c r="W33" s="90"/>
+      <c r="X33" s="90"/>
+      <c r="Y33" s="90"/>
+      <c r="Z33" s="90"/>
+      <c r="AA33" s="90"/>
+      <c r="AB33" s="90"/>
+      <c r="AC33" s="90"/>
+      <c r="AD33" s="90"/>
+      <c r="AE33" s="90"/>
+      <c r="AF33" s="90"/>
+      <c r="AG33" s="90"/>
+      <c r="AH33" s="90"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -7740,7 +7689,7 @@
       <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
